--- a/2025 Track.xlsx
+++ b/2025 Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\react-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18870C0-6802-4BBC-9AC8-17D5DA5D876B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28734915-BF14-4DB5-9717-1C61E92CD730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -345,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -554,11 +554,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top/>
       <bottom style="thick">
         <color theme="0"/>
       </bottom>
@@ -570,7 +596,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,19 +720,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -727,12 +744,6 @@
     <xf numFmtId="14" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -744,6 +755,15 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1939,10 +1959,10 @@
   <sheetData>
     <row r="1" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="44"/>
     </row>
     <row r="3" spans="2:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="33" t="s">
@@ -6711,10 +6731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCCB1A6-4234-460B-9354-2A4319EE0C90}">
-  <dimension ref="A1:R371"/>
+  <dimension ref="A1:Q371"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9:R9"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -6730,76 +6750,74 @@
     <col min="13" max="13" width="50.77734375" style="32" customWidth="1"/>
     <col min="14" max="15" width="13.33203125" customWidth="1"/>
     <col min="16" max="16" width="13.33203125" style="29" customWidth="1"/>
-    <col min="17" max="18" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="124.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:17" ht="124.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="50" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="50" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-    </row>
-    <row r="2" spans="1:18" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+    </row>
+    <row r="2" spans="1:17" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="54" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="54"/>
-    </row>
-    <row r="3" spans="1:18" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+    </row>
+    <row r="3" spans="1:17" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="26">
         <f>(E4/60)+(F4/3600)</f>
         <v>3.1205555555555557</v>
@@ -6808,10 +6826,10 @@
         <f>E4+(F4/60)</f>
         <v>187.23333333333335</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="26">
         <f>(K4/60)+(L4/3600)</f>
         <v>0.31472222222222224</v>
@@ -6820,14 +6838,13 @@
         <f>K4+(L4/60)</f>
         <v>18.883333333333333</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-    </row>
-    <row r="4" spans="1:18" ht="21" x14ac:dyDescent="0.3">
+      <c r="M3" s="49"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="57"/>
+    </row>
+    <row r="4" spans="1:17" ht="21.6" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
@@ -6880,13 +6897,12 @@
       <c r="P4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="55">
         <f>SUMIFS(Q$5:Q$369,$J$5:$J$369,"DONE")</f>
-        <v>15</v>
-      </c>
-      <c r="R4" s="47"/>
-    </row>
-    <row r="5" spans="1:18" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="31">
         <v>45658</v>
       </c>
@@ -6936,12 +6952,11 @@
       <c r="P5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="43">
         <v>1</v>
       </c>
-      <c r="R5" s="45"/>
-    </row>
-    <row r="6" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31">
         <v>45659</v>
       </c>
@@ -6995,13 +7010,12 @@
       <c r="P6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="43">
         <f>Q5+1</f>
         <v>2</v>
       </c>
-      <c r="R6" s="45"/>
-    </row>
-    <row r="7" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>45660</v>
       </c>
@@ -7056,13 +7070,12 @@
       <c r="P7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="43">
         <f>Q6+1</f>
         <v>3</v>
       </c>
-      <c r="R7" s="45"/>
-    </row>
-    <row r="8" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>45661</v>
       </c>
@@ -7117,13 +7130,12 @@
       <c r="P8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="43">
         <f>Q7+1</f>
         <v>4</v>
       </c>
-      <c r="R8" s="45"/>
-    </row>
-    <row r="9" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31">
         <v>45662</v>
       </c>
@@ -7178,13 +7190,12 @@
       <c r="P9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="43">
         <f>Q8+1</f>
         <v>5</v>
       </c>
-      <c r="R9" s="45"/>
-    </row>
-    <row r="10" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="31">
         <v>45663</v>
       </c>
@@ -7234,13 +7245,17 @@
       </c>
       <c r="O10" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="45"/>
-    </row>
-    <row r="11" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="43">
+        <f>Q9+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>45664</v>
       </c>
@@ -7286,17 +7301,16 @@
       </c>
       <c r="N11" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O11" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11" s="28"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="45"/>
-    </row>
-    <row r="12" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q11" s="43"/>
+    </row>
+    <row r="12" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31">
         <v>45665</v>
       </c>
@@ -7342,17 +7356,16 @@
       </c>
       <c r="N12" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O12" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P12" s="28"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="45"/>
-    </row>
-    <row r="13" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q12" s="43"/>
+    </row>
+    <row r="13" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>45666</v>
       </c>
@@ -7392,17 +7405,16 @@
       </c>
       <c r="N13" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O13" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P13" s="28"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="45"/>
-    </row>
-    <row r="14" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q13" s="43"/>
+    </row>
+    <row r="14" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31">
         <v>45667</v>
       </c>
@@ -7442,17 +7454,16 @@
       </c>
       <c r="N14" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O14" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P14" s="28"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="45"/>
-    </row>
-    <row r="15" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q14" s="43"/>
+    </row>
+    <row r="15" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <v>45668</v>
       </c>
@@ -7492,17 +7503,16 @@
       </c>
       <c r="N15" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O15" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P15" s="28"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="45"/>
-    </row>
-    <row r="16" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q15" s="43"/>
+    </row>
+    <row r="16" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <v>45669</v>
       </c>
@@ -7542,17 +7552,16 @@
       </c>
       <c r="N16" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O16" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P16" s="28"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="45"/>
-    </row>
-    <row r="17" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q16" s="43"/>
+    </row>
+    <row r="17" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31">
         <v>45670</v>
       </c>
@@ -7592,17 +7601,16 @@
       </c>
       <c r="N17" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O17" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P17" s="28"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="45"/>
-    </row>
-    <row r="18" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q17" s="43"/>
+    </row>
+    <row r="18" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31">
         <v>45671</v>
       </c>
@@ -7642,17 +7650,16 @@
       </c>
       <c r="N18" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O18" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P18" s="28"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="45"/>
-    </row>
-    <row r="19" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q18" s="43"/>
+    </row>
+    <row r="19" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <v>45672</v>
       </c>
@@ -7692,17 +7699,16 @@
       </c>
       <c r="N19" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O19" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P19" s="28"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="45"/>
-    </row>
-    <row r="20" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q19" s="43"/>
+    </row>
+    <row r="20" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31">
         <v>45673</v>
       </c>
@@ -7742,17 +7748,16 @@
       </c>
       <c r="N20" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O20" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P20" s="28"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="45"/>
-    </row>
-    <row r="21" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q20" s="43"/>
+    </row>
+    <row r="21" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="31">
         <v>45674</v>
       </c>
@@ -7792,17 +7797,16 @@
       </c>
       <c r="N21" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O21" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P21" s="28"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="45"/>
-    </row>
-    <row r="22" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q21" s="43"/>
+    </row>
+    <row r="22" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="31">
         <v>45675</v>
       </c>
@@ -7842,17 +7846,16 @@
       </c>
       <c r="N22" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O22" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P22" s="28"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="45"/>
-    </row>
-    <row r="23" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q22" s="43"/>
+    </row>
+    <row r="23" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31">
         <v>45676</v>
       </c>
@@ -7892,17 +7895,16 @@
       </c>
       <c r="N23" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O23" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P23" s="28"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="45"/>
-    </row>
-    <row r="24" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q23" s="43"/>
+    </row>
+    <row r="24" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="31">
         <v>45677</v>
       </c>
@@ -7942,17 +7944,16 @@
       </c>
       <c r="N24" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P24" s="28"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="45"/>
-    </row>
-    <row r="25" spans="1:18" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q24" s="43"/>
+    </row>
+    <row r="25" spans="1:17" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="31">
         <v>45678</v>
       </c>
@@ -7992,17 +7993,16 @@
       </c>
       <c r="N25" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O25" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P25" s="28"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="45"/>
-    </row>
-    <row r="26" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q25" s="43"/>
+    </row>
+    <row r="26" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31">
         <v>45679</v>
       </c>
@@ -8042,17 +8042,16 @@
       </c>
       <c r="N26" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O26" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P26" s="28"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="45"/>
-    </row>
-    <row r="27" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q26" s="43"/>
+    </row>
+    <row r="27" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="31">
         <v>45680</v>
       </c>
@@ -8092,17 +8091,16 @@
       </c>
       <c r="N27" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O27" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P27" s="28"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="45"/>
-    </row>
-    <row r="28" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q27" s="43"/>
+    </row>
+    <row r="28" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="31">
         <v>45681</v>
       </c>
@@ -8142,17 +8140,16 @@
       </c>
       <c r="N28" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O28" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P28" s="28"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="45"/>
-    </row>
-    <row r="29" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q28" s="43"/>
+    </row>
+    <row r="29" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31">
         <v>45682</v>
       </c>
@@ -8192,17 +8189,16 @@
       </c>
       <c r="N29" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O29" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P29" s="28"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="45"/>
-    </row>
-    <row r="30" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q29" s="43"/>
+    </row>
+    <row r="30" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31">
         <v>45683</v>
       </c>
@@ -8242,17 +8238,16 @@
       </c>
       <c r="N30" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O30" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P30" s="28"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="45"/>
-    </row>
-    <row r="31" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q30" s="43"/>
+    </row>
+    <row r="31" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="31">
         <v>45684</v>
       </c>
@@ -8292,17 +8287,16 @@
       </c>
       <c r="N31" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O31" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P31" s="28"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="45"/>
-    </row>
-    <row r="32" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q31" s="43"/>
+    </row>
+    <row r="32" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31">
         <v>45685</v>
       </c>
@@ -8342,17 +8336,16 @@
       </c>
       <c r="N32" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O32" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P32" s="28"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="45"/>
-    </row>
-    <row r="33" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q32" s="43"/>
+    </row>
+    <row r="33" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="31">
         <v>45686</v>
       </c>
@@ -8392,17 +8385,16 @@
       </c>
       <c r="N33" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O33" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P33" s="28"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="45"/>
-    </row>
-    <row r="34" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q33" s="43"/>
+    </row>
+    <row r="34" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="31">
         <v>45687</v>
       </c>
@@ -8442,17 +8434,16 @@
       </c>
       <c r="N34" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O34" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P34" s="28"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="45"/>
-    </row>
-    <row r="35" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q34" s="43"/>
+    </row>
+    <row r="35" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="31">
         <v>45688</v>
       </c>
@@ -8492,17 +8483,16 @@
       </c>
       <c r="N35" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O35" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P35" s="28"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="45"/>
-    </row>
-    <row r="36" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q35" s="43"/>
+    </row>
+    <row r="36" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="31">
         <v>45689</v>
       </c>
@@ -8542,17 +8532,16 @@
       </c>
       <c r="N36" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O36" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P36" s="28"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="45"/>
-    </row>
-    <row r="37" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q36" s="43"/>
+    </row>
+    <row r="37" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="31">
         <v>45690</v>
       </c>
@@ -8592,17 +8581,16 @@
       </c>
       <c r="N37" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O37" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P37" s="28"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="45"/>
-    </row>
-    <row r="38" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q37" s="43"/>
+    </row>
+    <row r="38" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="31">
         <v>45691</v>
       </c>
@@ -8642,17 +8630,16 @@
       </c>
       <c r="N38" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O38" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P38" s="28"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="45"/>
-    </row>
-    <row r="39" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q38" s="43"/>
+    </row>
+    <row r="39" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="31">
         <v>45692</v>
       </c>
@@ -8692,17 +8679,16 @@
       </c>
       <c r="N39" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O39" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P39" s="28"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="45"/>
-    </row>
-    <row r="40" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q39" s="43"/>
+    </row>
+    <row r="40" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="31">
         <v>45693</v>
       </c>
@@ -8742,17 +8728,16 @@
       </c>
       <c r="N40" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O40" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P40" s="28"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="45"/>
-    </row>
-    <row r="41" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q40" s="43"/>
+    </row>
+    <row r="41" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="31">
         <v>45694</v>
       </c>
@@ -8792,17 +8777,16 @@
       </c>
       <c r="N41" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O41" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P41" s="28"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="45"/>
-    </row>
-    <row r="42" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q41" s="43"/>
+    </row>
+    <row r="42" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="31">
         <v>45695</v>
       </c>
@@ -8842,17 +8826,16 @@
       </c>
       <c r="N42" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O42" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P42" s="28"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="45"/>
-    </row>
-    <row r="43" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q42" s="43"/>
+    </row>
+    <row r="43" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31">
         <v>45696</v>
       </c>
@@ -8892,17 +8875,16 @@
       </c>
       <c r="N43" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O43" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P43" s="28"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="45"/>
-    </row>
-    <row r="44" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q43" s="43"/>
+    </row>
+    <row r="44" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="31">
         <v>45697</v>
       </c>
@@ -8942,17 +8924,16 @@
       </c>
       <c r="N44" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O44" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P44" s="28"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="45"/>
-    </row>
-    <row r="45" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q44" s="43"/>
+    </row>
+    <row r="45" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="31">
         <v>45698</v>
       </c>
@@ -8992,17 +8973,16 @@
       </c>
       <c r="N45" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O45" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P45" s="28"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="45"/>
-    </row>
-    <row r="46" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q45" s="43"/>
+    </row>
+    <row r="46" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="31">
         <v>45699</v>
       </c>
@@ -9042,17 +9022,16 @@
       </c>
       <c r="N46" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O46" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P46" s="28"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="45"/>
-    </row>
-    <row r="47" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q46" s="43"/>
+    </row>
+    <row r="47" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="31">
         <v>45700</v>
       </c>
@@ -9092,17 +9071,16 @@
       </c>
       <c r="N47" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O47" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P47" s="28"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="45"/>
-    </row>
-    <row r="48" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q47" s="43"/>
+    </row>
+    <row r="48" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="31">
         <v>45701</v>
       </c>
@@ -9142,17 +9120,16 @@
       </c>
       <c r="N48" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O48" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P48" s="28"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="45"/>
-    </row>
-    <row r="49" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q48" s="43"/>
+    </row>
+    <row r="49" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="31">
         <v>45702</v>
       </c>
@@ -9192,17 +9169,16 @@
       </c>
       <c r="N49" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O49" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P49" s="28"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="45"/>
-    </row>
-    <row r="50" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q49" s="43"/>
+    </row>
+    <row r="50" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="31">
         <v>45703</v>
       </c>
@@ -9242,17 +9218,16 @@
       </c>
       <c r="N50" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O50" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P50" s="28"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="45"/>
-    </row>
-    <row r="51" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q50" s="43"/>
+    </row>
+    <row r="51" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="31">
         <v>45704</v>
       </c>
@@ -9292,17 +9267,16 @@
       </c>
       <c r="N51" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O51" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P51" s="28"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="45"/>
-    </row>
-    <row r="52" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q51" s="43"/>
+    </row>
+    <row r="52" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="31">
         <v>45705</v>
       </c>
@@ -9342,17 +9316,16 @@
       </c>
       <c r="N52" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O52" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P52" s="28"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="45"/>
-    </row>
-    <row r="53" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q52" s="43"/>
+    </row>
+    <row r="53" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="31">
         <v>45706</v>
       </c>
@@ -9392,17 +9365,16 @@
       </c>
       <c r="N53" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O53" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P53" s="28"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="45"/>
-    </row>
-    <row r="54" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q53" s="43"/>
+    </row>
+    <row r="54" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="31">
         <v>45707</v>
       </c>
@@ -9436,17 +9408,16 @@
       </c>
       <c r="N54" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O54" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P54" s="28"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="45"/>
-    </row>
-    <row r="55" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q54" s="43"/>
+    </row>
+    <row r="55" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="31">
         <v>45708</v>
       </c>
@@ -9480,17 +9451,16 @@
       </c>
       <c r="N55" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O55" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P55" s="28"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="45"/>
-    </row>
-    <row r="56" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q55" s="43"/>
+    </row>
+    <row r="56" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="31">
         <v>45709</v>
       </c>
@@ -9524,17 +9494,16 @@
       </c>
       <c r="N56" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O56" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P56" s="28"/>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="45"/>
-    </row>
-    <row r="57" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q56" s="43"/>
+    </row>
+    <row r="57" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="31">
         <v>45710</v>
       </c>
@@ -9568,17 +9537,16 @@
       </c>
       <c r="N57" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O57" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P57" s="28"/>
-      <c r="Q57" s="44"/>
-      <c r="R57" s="45"/>
-    </row>
-    <row r="58" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q57" s="43"/>
+    </row>
+    <row r="58" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31">
         <v>45711</v>
       </c>
@@ -9612,17 +9580,16 @@
       </c>
       <c r="N58" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O58" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P58" s="28"/>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="45"/>
-    </row>
-    <row r="59" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q58" s="43"/>
+    </row>
+    <row r="59" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="31">
         <v>45712</v>
       </c>
@@ -9656,17 +9623,16 @@
       </c>
       <c r="N59" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O59" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P59" s="28"/>
-      <c r="Q59" s="44"/>
-      <c r="R59" s="45"/>
-    </row>
-    <row r="60" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q59" s="43"/>
+    </row>
+    <row r="60" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="31">
         <v>45713</v>
       </c>
@@ -9700,17 +9666,16 @@
       </c>
       <c r="N60" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O60" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P60" s="28"/>
-      <c r="Q60" s="44"/>
-      <c r="R60" s="45"/>
-    </row>
-    <row r="61" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q60" s="43"/>
+    </row>
+    <row r="61" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="31">
         <v>45714</v>
       </c>
@@ -9744,17 +9709,16 @@
       </c>
       <c r="N61" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O61" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P61" s="28"/>
-      <c r="Q61" s="44"/>
-      <c r="R61" s="45"/>
-    </row>
-    <row r="62" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q61" s="43"/>
+    </row>
+    <row r="62" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="31">
         <v>45715</v>
       </c>
@@ -9788,17 +9752,16 @@
       </c>
       <c r="N62" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O62" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P62" s="28"/>
-      <c r="Q62" s="44"/>
-      <c r="R62" s="45"/>
-    </row>
-    <row r="63" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q62" s="43"/>
+    </row>
+    <row r="63" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31">
         <v>45716</v>
       </c>
@@ -9832,17 +9795,16 @@
       </c>
       <c r="N63" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O63" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P63" s="28"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="45"/>
-    </row>
-    <row r="64" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q63" s="43"/>
+    </row>
+    <row r="64" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="31">
         <v>45717</v>
       </c>
@@ -9876,17 +9838,16 @@
       </c>
       <c r="N64" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O64" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P64" s="28"/>
-      <c r="Q64" s="44"/>
-      <c r="R64" s="45"/>
-    </row>
-    <row r="65" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q64" s="43"/>
+    </row>
+    <row r="65" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="31">
         <v>45718</v>
       </c>
@@ -9920,17 +9881,16 @@
       </c>
       <c r="N65" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O65" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P65" s="28"/>
-      <c r="Q65" s="44"/>
-      <c r="R65" s="45"/>
-    </row>
-    <row r="66" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q65" s="43"/>
+    </row>
+    <row r="66" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="31">
         <v>45719</v>
       </c>
@@ -9964,17 +9924,16 @@
       </c>
       <c r="N66" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O66" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P66" s="28"/>
-      <c r="Q66" s="44"/>
-      <c r="R66" s="45"/>
-    </row>
-    <row r="67" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q66" s="43"/>
+    </row>
+    <row r="67" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="31">
         <v>45720</v>
       </c>
@@ -10008,17 +9967,16 @@
       </c>
       <c r="N67" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O67" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P67" s="28"/>
-      <c r="Q67" s="44"/>
-      <c r="R67" s="45"/>
-    </row>
-    <row r="68" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q67" s="43"/>
+    </row>
+    <row r="68" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="31">
         <v>45721</v>
       </c>
@@ -10052,17 +10010,16 @@
       </c>
       <c r="N68" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O68" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P68" s="28"/>
-      <c r="Q68" s="44"/>
-      <c r="R68" s="45"/>
-    </row>
-    <row r="69" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q68" s="43"/>
+    </row>
+    <row r="69" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="31">
         <v>45722</v>
       </c>
@@ -10096,17 +10053,16 @@
       </c>
       <c r="N69" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O69" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P69" s="28"/>
-      <c r="Q69" s="44"/>
-      <c r="R69" s="45"/>
-    </row>
-    <row r="70" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q69" s="43"/>
+    </row>
+    <row r="70" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="31">
         <v>45723</v>
       </c>
@@ -10140,17 +10096,16 @@
       </c>
       <c r="N70" s="41">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O70" s="41">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P70" s="28"/>
-      <c r="Q70" s="44"/>
-      <c r="R70" s="45"/>
-    </row>
-    <row r="71" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q70" s="43"/>
+    </row>
+    <row r="71" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="31">
         <v>45724</v>
       </c>
@@ -10184,17 +10139,16 @@
       </c>
       <c r="N71" s="41">
         <f t="shared" ref="N71:N134" si="10">O70</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O71" s="41">
         <f t="shared" ref="O71:O134" si="11">IF(Q71&gt;N71,Q71,N71)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P71" s="28"/>
-      <c r="Q71" s="44"/>
-      <c r="R71" s="45"/>
-    </row>
-    <row r="72" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q71" s="43"/>
+    </row>
+    <row r="72" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="31">
         <v>45725</v>
       </c>
@@ -10228,17 +10182,16 @@
       </c>
       <c r="N72" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O72" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P72" s="28"/>
-      <c r="Q72" s="44"/>
-      <c r="R72" s="45"/>
-    </row>
-    <row r="73" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q72" s="43"/>
+    </row>
+    <row r="73" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="31">
         <v>45726</v>
       </c>
@@ -10272,17 +10225,16 @@
       </c>
       <c r="N73" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O73" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P73" s="28"/>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="45"/>
-    </row>
-    <row r="74" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q73" s="43"/>
+    </row>
+    <row r="74" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="31">
         <v>45727</v>
       </c>
@@ -10316,17 +10268,16 @@
       </c>
       <c r="N74" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O74" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P74" s="28"/>
-      <c r="Q74" s="44"/>
-      <c r="R74" s="45"/>
-    </row>
-    <row r="75" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q74" s="43"/>
+    </row>
+    <row r="75" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="31">
         <v>45728</v>
       </c>
@@ -10360,17 +10311,16 @@
       </c>
       <c r="N75" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O75" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P75" s="28"/>
-      <c r="Q75" s="44"/>
-      <c r="R75" s="45"/>
-    </row>
-    <row r="76" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q75" s="43"/>
+    </row>
+    <row r="76" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="31">
         <v>45729</v>
       </c>
@@ -10404,17 +10354,16 @@
       </c>
       <c r="N76" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O76" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P76" s="28"/>
-      <c r="Q76" s="44"/>
-      <c r="R76" s="45"/>
-    </row>
-    <row r="77" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q76" s="43"/>
+    </row>
+    <row r="77" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="31">
         <v>45730</v>
       </c>
@@ -10448,17 +10397,16 @@
       </c>
       <c r="N77" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O77" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P77" s="28"/>
-      <c r="Q77" s="44"/>
-      <c r="R77" s="45"/>
-    </row>
-    <row r="78" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q77" s="43"/>
+    </row>
+    <row r="78" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="31">
         <v>45731</v>
       </c>
@@ -10492,17 +10440,16 @@
       </c>
       <c r="N78" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O78" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P78" s="28"/>
-      <c r="Q78" s="44"/>
-      <c r="R78" s="45"/>
-    </row>
-    <row r="79" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q78" s="43"/>
+    </row>
+    <row r="79" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="31">
         <v>45732</v>
       </c>
@@ -10536,17 +10483,16 @@
       </c>
       <c r="N79" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O79" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P79" s="28"/>
-      <c r="Q79" s="44"/>
-      <c r="R79" s="45"/>
-    </row>
-    <row r="80" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q79" s="43"/>
+    </row>
+    <row r="80" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="31">
         <v>45733</v>
       </c>
@@ -10580,17 +10526,16 @@
       </c>
       <c r="N80" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O80" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P80" s="28"/>
-      <c r="Q80" s="44"/>
-      <c r="R80" s="45"/>
-    </row>
-    <row r="81" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q80" s="43"/>
+    </row>
+    <row r="81" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="31">
         <v>45734</v>
       </c>
@@ -10624,17 +10569,16 @@
       </c>
       <c r="N81" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O81" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P81" s="28"/>
-      <c r="Q81" s="44"/>
-      <c r="R81" s="45"/>
-    </row>
-    <row r="82" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q81" s="43"/>
+    </row>
+    <row r="82" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="31">
         <v>45735</v>
       </c>
@@ -10668,17 +10612,16 @@
       </c>
       <c r="N82" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O82" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P82" s="28"/>
-      <c r="Q82" s="44"/>
-      <c r="R82" s="45"/>
-    </row>
-    <row r="83" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q82" s="43"/>
+    </row>
+    <row r="83" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="31">
         <v>45736</v>
       </c>
@@ -10712,17 +10655,16 @@
       </c>
       <c r="N83" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O83" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P83" s="28"/>
-      <c r="Q83" s="44"/>
-      <c r="R83" s="45"/>
-    </row>
-    <row r="84" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q83" s="43"/>
+    </row>
+    <row r="84" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="31">
         <v>45737</v>
       </c>
@@ -10756,17 +10698,16 @@
       </c>
       <c r="N84" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O84" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P84" s="28"/>
-      <c r="Q84" s="44"/>
-      <c r="R84" s="45"/>
-    </row>
-    <row r="85" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q84" s="43"/>
+    </row>
+    <row r="85" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="31">
         <v>45738</v>
       </c>
@@ -10800,17 +10741,16 @@
       </c>
       <c r="N85" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O85" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P85" s="28"/>
-      <c r="Q85" s="44"/>
-      <c r="R85" s="45"/>
-    </row>
-    <row r="86" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q85" s="43"/>
+    </row>
+    <row r="86" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="31">
         <v>45739</v>
       </c>
@@ -10844,17 +10784,16 @@
       </c>
       <c r="N86" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O86" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P86" s="28"/>
-      <c r="Q86" s="44"/>
-      <c r="R86" s="45"/>
-    </row>
-    <row r="87" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q86" s="43"/>
+    </row>
+    <row r="87" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="31">
         <v>45740</v>
       </c>
@@ -10888,17 +10827,16 @@
       </c>
       <c r="N87" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O87" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P87" s="28"/>
-      <c r="Q87" s="44"/>
-      <c r="R87" s="45"/>
-    </row>
-    <row r="88" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q87" s="43"/>
+    </row>
+    <row r="88" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="31">
         <v>45741</v>
       </c>
@@ -10932,17 +10870,16 @@
       </c>
       <c r="N88" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O88" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P88" s="28"/>
-      <c r="Q88" s="44"/>
-      <c r="R88" s="45"/>
-    </row>
-    <row r="89" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q88" s="43"/>
+    </row>
+    <row r="89" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="31">
         <v>45742</v>
       </c>
@@ -10976,17 +10913,16 @@
       </c>
       <c r="N89" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O89" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P89" s="28"/>
-      <c r="Q89" s="44"/>
-      <c r="R89" s="45"/>
-    </row>
-    <row r="90" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q89" s="43"/>
+    </row>
+    <row r="90" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="31">
         <v>45743</v>
       </c>
@@ -11020,17 +10956,16 @@
       </c>
       <c r="N90" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O90" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P90" s="28"/>
-      <c r="Q90" s="44"/>
-      <c r="R90" s="45"/>
-    </row>
-    <row r="91" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q90" s="43"/>
+    </row>
+    <row r="91" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="31">
         <v>45744</v>
       </c>
@@ -11064,17 +10999,16 @@
       </c>
       <c r="N91" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O91" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P91" s="28"/>
-      <c r="Q91" s="44"/>
-      <c r="R91" s="45"/>
-    </row>
-    <row r="92" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q91" s="43"/>
+    </row>
+    <row r="92" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="31">
         <v>45745</v>
       </c>
@@ -11108,17 +11042,16 @@
       </c>
       <c r="N92" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O92" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P92" s="28"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="45"/>
-    </row>
-    <row r="93" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q92" s="43"/>
+    </row>
+    <row r="93" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="31">
         <v>45746</v>
       </c>
@@ -11152,17 +11085,16 @@
       </c>
       <c r="N93" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O93" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P93" s="28"/>
-      <c r="Q93" s="44"/>
-      <c r="R93" s="45"/>
-    </row>
-    <row r="94" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q93" s="43"/>
+    </row>
+    <row r="94" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="31">
         <v>45747</v>
       </c>
@@ -11196,17 +11128,16 @@
       </c>
       <c r="N94" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O94" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P94" s="28"/>
-      <c r="Q94" s="44"/>
-      <c r="R94" s="45"/>
-    </row>
-    <row r="95" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q94" s="43"/>
+    </row>
+    <row r="95" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="31">
         <v>45748</v>
       </c>
@@ -11240,17 +11171,16 @@
       </c>
       <c r="N95" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O95" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P95" s="28"/>
-      <c r="Q95" s="44"/>
-      <c r="R95" s="45"/>
-    </row>
-    <row r="96" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q95" s="43"/>
+    </row>
+    <row r="96" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="31">
         <v>45749</v>
       </c>
@@ -11284,17 +11214,16 @@
       </c>
       <c r="N96" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O96" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P96" s="28"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="45"/>
-    </row>
-    <row r="97" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q96" s="43"/>
+    </row>
+    <row r="97" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="31">
         <v>45750</v>
       </c>
@@ -11328,17 +11257,16 @@
       </c>
       <c r="N97" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O97" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P97" s="28"/>
-      <c r="Q97" s="44"/>
-      <c r="R97" s="45"/>
-    </row>
-    <row r="98" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q97" s="43"/>
+    </row>
+    <row r="98" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="31">
         <v>45751</v>
       </c>
@@ -11372,17 +11300,16 @@
       </c>
       <c r="N98" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O98" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P98" s="28"/>
-      <c r="Q98" s="44"/>
-      <c r="R98" s="45"/>
-    </row>
-    <row r="99" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q98" s="43"/>
+    </row>
+    <row r="99" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="31">
         <v>45752</v>
       </c>
@@ -11416,17 +11343,16 @@
       </c>
       <c r="N99" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O99" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P99" s="28"/>
-      <c r="Q99" s="44"/>
-      <c r="R99" s="45"/>
-    </row>
-    <row r="100" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q99" s="43"/>
+    </row>
+    <row r="100" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="31">
         <v>45753</v>
       </c>
@@ -11460,17 +11386,16 @@
       </c>
       <c r="N100" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O100" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P100" s="28"/>
-      <c r="Q100" s="44"/>
-      <c r="R100" s="45"/>
-    </row>
-    <row r="101" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q100" s="43"/>
+    </row>
+    <row r="101" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="31">
         <v>45754</v>
       </c>
@@ -11504,17 +11429,16 @@
       </c>
       <c r="N101" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O101" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P101" s="28"/>
-      <c r="Q101" s="44"/>
-      <c r="R101" s="45"/>
-    </row>
-    <row r="102" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q101" s="43"/>
+    </row>
+    <row r="102" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="31">
         <v>45755</v>
       </c>
@@ -11548,17 +11472,16 @@
       </c>
       <c r="N102" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O102" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P102" s="28"/>
-      <c r="Q102" s="44"/>
-      <c r="R102" s="45"/>
-    </row>
-    <row r="103" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q102" s="43"/>
+    </row>
+    <row r="103" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="31">
         <v>45756</v>
       </c>
@@ -11592,17 +11515,16 @@
       </c>
       <c r="N103" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O103" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P103" s="28"/>
-      <c r="Q103" s="44"/>
-      <c r="R103" s="45"/>
-    </row>
-    <row r="104" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q103" s="43"/>
+    </row>
+    <row r="104" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="31">
         <v>45757</v>
       </c>
@@ -11636,17 +11558,16 @@
       </c>
       <c r="N104" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O104" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P104" s="28"/>
-      <c r="Q104" s="44"/>
-      <c r="R104" s="45"/>
-    </row>
-    <row r="105" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q104" s="43"/>
+    </row>
+    <row r="105" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="31">
         <v>45758</v>
       </c>
@@ -11680,17 +11601,16 @@
       </c>
       <c r="N105" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O105" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P105" s="28"/>
-      <c r="Q105" s="44"/>
-      <c r="R105" s="45"/>
-    </row>
-    <row r="106" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q105" s="43"/>
+    </row>
+    <row r="106" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="31">
         <v>45759</v>
       </c>
@@ -11724,17 +11644,16 @@
       </c>
       <c r="N106" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O106" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P106" s="28"/>
-      <c r="Q106" s="44"/>
-      <c r="R106" s="45"/>
-    </row>
-    <row r="107" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q106" s="43"/>
+    </row>
+    <row r="107" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="31">
         <v>45760</v>
       </c>
@@ -11768,17 +11687,16 @@
       </c>
       <c r="N107" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O107" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P107" s="28"/>
-      <c r="Q107" s="44"/>
-      <c r="R107" s="45"/>
-    </row>
-    <row r="108" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q107" s="43"/>
+    </row>
+    <row r="108" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="31">
         <v>45761</v>
       </c>
@@ -11812,17 +11730,16 @@
       </c>
       <c r="N108" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O108" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P108" s="28"/>
-      <c r="Q108" s="44"/>
-      <c r="R108" s="45"/>
-    </row>
-    <row r="109" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q108" s="43"/>
+    </row>
+    <row r="109" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="31">
         <v>45762</v>
       </c>
@@ -11856,17 +11773,16 @@
       </c>
       <c r="N109" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O109" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P109" s="28"/>
-      <c r="Q109" s="44"/>
-      <c r="R109" s="45"/>
-    </row>
-    <row r="110" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q109" s="43"/>
+    </row>
+    <row r="110" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="31">
         <v>45763</v>
       </c>
@@ -11900,17 +11816,16 @@
       </c>
       <c r="N110" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O110" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P110" s="28"/>
-      <c r="Q110" s="44"/>
-      <c r="R110" s="45"/>
-    </row>
-    <row r="111" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q110" s="43"/>
+    </row>
+    <row r="111" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="31">
         <v>45764</v>
       </c>
@@ -11944,17 +11859,16 @@
       </c>
       <c r="N111" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O111" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P111" s="28"/>
-      <c r="Q111" s="44"/>
-      <c r="R111" s="45"/>
-    </row>
-    <row r="112" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q111" s="43"/>
+    </row>
+    <row r="112" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="31">
         <v>45765</v>
       </c>
@@ -11988,17 +11902,16 @@
       </c>
       <c r="N112" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O112" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P112" s="28"/>
-      <c r="Q112" s="44"/>
-      <c r="R112" s="45"/>
-    </row>
-    <row r="113" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q112" s="43"/>
+    </row>
+    <row r="113" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="31">
         <v>45766</v>
       </c>
@@ -12032,17 +11945,16 @@
       </c>
       <c r="N113" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O113" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P113" s="28"/>
-      <c r="Q113" s="44"/>
-      <c r="R113" s="45"/>
-    </row>
-    <row r="114" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q113" s="43"/>
+    </row>
+    <row r="114" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="31">
         <v>45767</v>
       </c>
@@ -12076,17 +11988,16 @@
       </c>
       <c r="N114" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O114" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P114" s="28"/>
-      <c r="Q114" s="44"/>
-      <c r="R114" s="45"/>
-    </row>
-    <row r="115" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q114" s="43"/>
+    </row>
+    <row r="115" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="31">
         <v>45768</v>
       </c>
@@ -12120,17 +12031,16 @@
       </c>
       <c r="N115" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O115" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P115" s="28"/>
-      <c r="Q115" s="44"/>
-      <c r="R115" s="45"/>
-    </row>
-    <row r="116" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q115" s="43"/>
+    </row>
+    <row r="116" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="31">
         <v>45769</v>
       </c>
@@ -12164,17 +12074,16 @@
       </c>
       <c r="N116" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O116" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P116" s="28"/>
-      <c r="Q116" s="44"/>
-      <c r="R116" s="45"/>
-    </row>
-    <row r="117" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q116" s="43"/>
+    </row>
+    <row r="117" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="31">
         <v>45770</v>
       </c>
@@ -12208,17 +12117,16 @@
       </c>
       <c r="N117" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O117" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P117" s="28"/>
-      <c r="Q117" s="44"/>
-      <c r="R117" s="45"/>
-    </row>
-    <row r="118" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q117" s="43"/>
+    </row>
+    <row r="118" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="31">
         <v>45771</v>
       </c>
@@ -12252,17 +12160,16 @@
       </c>
       <c r="N118" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O118" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P118" s="28"/>
-      <c r="Q118" s="44"/>
-      <c r="R118" s="45"/>
-    </row>
-    <row r="119" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q118" s="43"/>
+    </row>
+    <row r="119" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="31">
         <v>45772</v>
       </c>
@@ -12296,17 +12203,16 @@
       </c>
       <c r="N119" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O119" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P119" s="28"/>
-      <c r="Q119" s="44"/>
-      <c r="R119" s="45"/>
-    </row>
-    <row r="120" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q119" s="43"/>
+    </row>
+    <row r="120" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="31">
         <v>45773</v>
       </c>
@@ -12340,17 +12246,16 @@
       </c>
       <c r="N120" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O120" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P120" s="28"/>
-      <c r="Q120" s="44"/>
-      <c r="R120" s="45"/>
-    </row>
-    <row r="121" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q120" s="43"/>
+    </row>
+    <row r="121" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="31">
         <v>45774</v>
       </c>
@@ -12384,17 +12289,16 @@
       </c>
       <c r="N121" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O121" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P121" s="28"/>
-      <c r="Q121" s="44"/>
-      <c r="R121" s="45"/>
-    </row>
-    <row r="122" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q121" s="43"/>
+    </row>
+    <row r="122" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="31">
         <v>45775</v>
       </c>
@@ -12428,17 +12332,16 @@
       </c>
       <c r="N122" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O122" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P122" s="28"/>
-      <c r="Q122" s="44"/>
-      <c r="R122" s="45"/>
-    </row>
-    <row r="123" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q122" s="43"/>
+    </row>
+    <row r="123" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="31">
         <v>45776</v>
       </c>
@@ -12472,17 +12375,16 @@
       </c>
       <c r="N123" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O123" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P123" s="28"/>
-      <c r="Q123" s="44"/>
-      <c r="R123" s="45"/>
-    </row>
-    <row r="124" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q123" s="43"/>
+    </row>
+    <row r="124" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="31">
         <v>45777</v>
       </c>
@@ -12516,17 +12418,16 @@
       </c>
       <c r="N124" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O124" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P124" s="28"/>
-      <c r="Q124" s="44"/>
-      <c r="R124" s="45"/>
-    </row>
-    <row r="125" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q124" s="43"/>
+    </row>
+    <row r="125" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="31">
         <v>45778</v>
       </c>
@@ -12560,17 +12461,16 @@
       </c>
       <c r="N125" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O125" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P125" s="28"/>
-      <c r="Q125" s="44"/>
-      <c r="R125" s="45"/>
-    </row>
-    <row r="126" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q125" s="43"/>
+    </row>
+    <row r="126" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="31">
         <v>45779</v>
       </c>
@@ -12604,17 +12504,16 @@
       </c>
       <c r="N126" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O126" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P126" s="28"/>
-      <c r="Q126" s="44"/>
-      <c r="R126" s="45"/>
-    </row>
-    <row r="127" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q126" s="43"/>
+    </row>
+    <row r="127" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="31">
         <v>45780</v>
       </c>
@@ -12648,17 +12547,16 @@
       </c>
       <c r="N127" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O127" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P127" s="28"/>
-      <c r="Q127" s="44"/>
-      <c r="R127" s="45"/>
-    </row>
-    <row r="128" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q127" s="43"/>
+    </row>
+    <row r="128" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="31">
         <v>45781</v>
       </c>
@@ -12692,17 +12590,16 @@
       </c>
       <c r="N128" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O128" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P128" s="28"/>
-      <c r="Q128" s="44"/>
-      <c r="R128" s="45"/>
-    </row>
-    <row r="129" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q128" s="43"/>
+    </row>
+    <row r="129" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="31">
         <v>45782</v>
       </c>
@@ -12736,17 +12633,16 @@
       </c>
       <c r="N129" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O129" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P129" s="28"/>
-      <c r="Q129" s="44"/>
-      <c r="R129" s="45"/>
-    </row>
-    <row r="130" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q129" s="43"/>
+    </row>
+    <row r="130" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="31">
         <v>45783</v>
       </c>
@@ -12780,17 +12676,16 @@
       </c>
       <c r="N130" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O130" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P130" s="28"/>
-      <c r="Q130" s="44"/>
-      <c r="R130" s="45"/>
-    </row>
-    <row r="131" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q130" s="43"/>
+    </row>
+    <row r="131" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="31">
         <v>45784</v>
       </c>
@@ -12824,17 +12719,16 @@
       </c>
       <c r="N131" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O131" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P131" s="28"/>
-      <c r="Q131" s="44"/>
-      <c r="R131" s="45"/>
-    </row>
-    <row r="132" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q131" s="43"/>
+    </row>
+    <row r="132" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="31">
         <v>45785</v>
       </c>
@@ -12868,17 +12762,16 @@
       </c>
       <c r="N132" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O132" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P132" s="28"/>
-      <c r="Q132" s="44"/>
-      <c r="R132" s="45"/>
-    </row>
-    <row r="133" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q132" s="43"/>
+    </row>
+    <row r="133" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="31">
         <v>45786</v>
       </c>
@@ -12912,17 +12805,16 @@
       </c>
       <c r="N133" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O133" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P133" s="28"/>
-      <c r="Q133" s="44"/>
-      <c r="R133" s="45"/>
-    </row>
-    <row r="134" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q133" s="43"/>
+    </row>
+    <row r="134" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="31">
         <v>45787</v>
       </c>
@@ -12956,17 +12848,16 @@
       </c>
       <c r="N134" s="41">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O134" s="41">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P134" s="28"/>
-      <c r="Q134" s="44"/>
-      <c r="R134" s="45"/>
-    </row>
-    <row r="135" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q134" s="43"/>
+    </row>
+    <row r="135" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="31">
         <v>45788</v>
       </c>
@@ -13000,17 +12891,16 @@
       </c>
       <c r="N135" s="41">
         <f t="shared" ref="N135:N198" si="16">O134</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O135" s="41">
         <f t="shared" ref="O135:O198" si="17">IF(Q135&gt;N135,Q135,N135)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P135" s="28"/>
-      <c r="Q135" s="44"/>
-      <c r="R135" s="45"/>
-    </row>
-    <row r="136" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q135" s="43"/>
+    </row>
+    <row r="136" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="31">
         <v>45789</v>
       </c>
@@ -13044,17 +12934,16 @@
       </c>
       <c r="N136" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O136" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P136" s="28"/>
-      <c r="Q136" s="44"/>
-      <c r="R136" s="45"/>
-    </row>
-    <row r="137" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q136" s="43"/>
+    </row>
+    <row r="137" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="31">
         <v>45790</v>
       </c>
@@ -13088,17 +12977,16 @@
       </c>
       <c r="N137" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O137" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P137" s="28"/>
-      <c r="Q137" s="44"/>
-      <c r="R137" s="45"/>
-    </row>
-    <row r="138" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q137" s="43"/>
+    </row>
+    <row r="138" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="31">
         <v>45791</v>
       </c>
@@ -13132,17 +13020,16 @@
       </c>
       <c r="N138" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O138" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P138" s="28"/>
-      <c r="Q138" s="44"/>
-      <c r="R138" s="45"/>
-    </row>
-    <row r="139" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q138" s="43"/>
+    </row>
+    <row r="139" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="31">
         <v>45792</v>
       </c>
@@ -13176,17 +13063,16 @@
       </c>
       <c r="N139" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O139" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P139" s="28"/>
-      <c r="Q139" s="44"/>
-      <c r="R139" s="45"/>
-    </row>
-    <row r="140" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q139" s="43"/>
+    </row>
+    <row r="140" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="31">
         <v>45793</v>
       </c>
@@ -13220,17 +13106,16 @@
       </c>
       <c r="N140" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O140" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P140" s="28"/>
-      <c r="Q140" s="44"/>
-      <c r="R140" s="45"/>
-    </row>
-    <row r="141" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q140" s="43"/>
+    </row>
+    <row r="141" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="31">
         <v>45794</v>
       </c>
@@ -13264,17 +13149,16 @@
       </c>
       <c r="N141" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O141" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P141" s="28"/>
-      <c r="Q141" s="44"/>
-      <c r="R141" s="45"/>
-    </row>
-    <row r="142" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q141" s="43"/>
+    </row>
+    <row r="142" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="31">
         <v>45795</v>
       </c>
@@ -13308,17 +13192,16 @@
       </c>
       <c r="N142" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O142" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P142" s="28"/>
-      <c r="Q142" s="44"/>
-      <c r="R142" s="45"/>
-    </row>
-    <row r="143" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q142" s="43"/>
+    </row>
+    <row r="143" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="31">
         <v>45796</v>
       </c>
@@ -13352,17 +13235,16 @@
       </c>
       <c r="N143" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O143" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P143" s="28"/>
-      <c r="Q143" s="44"/>
-      <c r="R143" s="45"/>
-    </row>
-    <row r="144" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q143" s="43"/>
+    </row>
+    <row r="144" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="31">
         <v>45797</v>
       </c>
@@ -13396,17 +13278,16 @@
       </c>
       <c r="N144" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O144" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P144" s="28"/>
-      <c r="Q144" s="44"/>
-      <c r="R144" s="45"/>
-    </row>
-    <row r="145" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q144" s="43"/>
+    </row>
+    <row r="145" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="31">
         <v>45798</v>
       </c>
@@ -13440,17 +13321,16 @@
       </c>
       <c r="N145" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O145" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P145" s="28"/>
-      <c r="Q145" s="44"/>
-      <c r="R145" s="45"/>
-    </row>
-    <row r="146" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q145" s="43"/>
+    </row>
+    <row r="146" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="31">
         <v>45799</v>
       </c>
@@ -13484,17 +13364,16 @@
       </c>
       <c r="N146" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O146" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P146" s="28"/>
-      <c r="Q146" s="44"/>
-      <c r="R146" s="45"/>
-    </row>
-    <row r="147" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q146" s="43"/>
+    </row>
+    <row r="147" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="31">
         <v>45800</v>
       </c>
@@ -13528,17 +13407,16 @@
       </c>
       <c r="N147" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O147" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P147" s="28"/>
-      <c r="Q147" s="44"/>
-      <c r="R147" s="45"/>
-    </row>
-    <row r="148" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q147" s="43"/>
+    </row>
+    <row r="148" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="31">
         <v>45801</v>
       </c>
@@ -13572,17 +13450,16 @@
       </c>
       <c r="N148" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O148" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P148" s="28"/>
-      <c r="Q148" s="44"/>
-      <c r="R148" s="45"/>
-    </row>
-    <row r="149" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q148" s="43"/>
+    </row>
+    <row r="149" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="31">
         <v>45802</v>
       </c>
@@ -13616,17 +13493,16 @@
       </c>
       <c r="N149" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O149" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P149" s="28"/>
-      <c r="Q149" s="44"/>
-      <c r="R149" s="45"/>
-    </row>
-    <row r="150" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q149" s="43"/>
+    </row>
+    <row r="150" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="31">
         <v>45803</v>
       </c>
@@ -13660,17 +13536,16 @@
       </c>
       <c r="N150" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O150" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P150" s="28"/>
-      <c r="Q150" s="44"/>
-      <c r="R150" s="45"/>
-    </row>
-    <row r="151" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q150" s="43"/>
+    </row>
+    <row r="151" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="31">
         <v>45804</v>
       </c>
@@ -13704,17 +13579,16 @@
       </c>
       <c r="N151" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O151" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P151" s="28"/>
-      <c r="Q151" s="44"/>
-      <c r="R151" s="45"/>
-    </row>
-    <row r="152" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q151" s="43"/>
+    </row>
+    <row r="152" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="31">
         <v>45805</v>
       </c>
@@ -13748,17 +13622,16 @@
       </c>
       <c r="N152" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O152" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P152" s="28"/>
-      <c r="Q152" s="44"/>
-      <c r="R152" s="45"/>
-    </row>
-    <row r="153" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q152" s="43"/>
+    </row>
+    <row r="153" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="31">
         <v>45806</v>
       </c>
@@ -13792,17 +13665,16 @@
       </c>
       <c r="N153" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O153" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P153" s="28"/>
-      <c r="Q153" s="44"/>
-      <c r="R153" s="45"/>
-    </row>
-    <row r="154" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q153" s="43"/>
+    </row>
+    <row r="154" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="31">
         <v>45807</v>
       </c>
@@ -13836,17 +13708,16 @@
       </c>
       <c r="N154" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O154" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P154" s="28"/>
-      <c r="Q154" s="44"/>
-      <c r="R154" s="45"/>
-    </row>
-    <row r="155" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q154" s="43"/>
+    </row>
+    <row r="155" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="31">
         <v>45808</v>
       </c>
@@ -13880,17 +13751,16 @@
       </c>
       <c r="N155" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O155" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P155" s="28"/>
-      <c r="Q155" s="44"/>
-      <c r="R155" s="45"/>
-    </row>
-    <row r="156" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q155" s="43"/>
+    </row>
+    <row r="156" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="31">
         <v>45809</v>
       </c>
@@ -13924,17 +13794,16 @@
       </c>
       <c r="N156" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O156" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P156" s="28"/>
-      <c r="Q156" s="44"/>
-      <c r="R156" s="45"/>
-    </row>
-    <row r="157" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q156" s="43"/>
+    </row>
+    <row r="157" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="31">
         <v>45810</v>
       </c>
@@ -13968,17 +13837,16 @@
       </c>
       <c r="N157" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O157" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P157" s="28"/>
-      <c r="Q157" s="44"/>
-      <c r="R157" s="45"/>
-    </row>
-    <row r="158" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q157" s="43"/>
+    </row>
+    <row r="158" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="31">
         <v>45811</v>
       </c>
@@ -14012,17 +13880,16 @@
       </c>
       <c r="N158" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O158" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P158" s="28"/>
-      <c r="Q158" s="44"/>
-      <c r="R158" s="45"/>
-    </row>
-    <row r="159" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q158" s="43"/>
+    </row>
+    <row r="159" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="31">
         <v>45812</v>
       </c>
@@ -14056,17 +13923,16 @@
       </c>
       <c r="N159" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O159" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P159" s="28"/>
-      <c r="Q159" s="44"/>
-      <c r="R159" s="45"/>
-    </row>
-    <row r="160" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q159" s="43"/>
+    </row>
+    <row r="160" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="31">
         <v>45813</v>
       </c>
@@ -14100,17 +13966,16 @@
       </c>
       <c r="N160" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O160" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P160" s="28"/>
-      <c r="Q160" s="44"/>
-      <c r="R160" s="45"/>
-    </row>
-    <row r="161" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q160" s="43"/>
+    </row>
+    <row r="161" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="31">
         <v>45814</v>
       </c>
@@ -14144,17 +14009,16 @@
       </c>
       <c r="N161" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O161" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P161" s="28"/>
-      <c r="Q161" s="44"/>
-      <c r="R161" s="45"/>
-    </row>
-    <row r="162" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q161" s="43"/>
+    </row>
+    <row r="162" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="31">
         <v>45815</v>
       </c>
@@ -14188,17 +14052,16 @@
       </c>
       <c r="N162" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O162" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P162" s="28"/>
-      <c r="Q162" s="44"/>
-      <c r="R162" s="45"/>
-    </row>
-    <row r="163" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q162" s="43"/>
+    </row>
+    <row r="163" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="31">
         <v>45816</v>
       </c>
@@ -14232,17 +14095,16 @@
       </c>
       <c r="N163" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O163" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P163" s="28"/>
-      <c r="Q163" s="44"/>
-      <c r="R163" s="45"/>
-    </row>
-    <row r="164" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q163" s="43"/>
+    </row>
+    <row r="164" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="31">
         <v>45817</v>
       </c>
@@ -14276,17 +14138,16 @@
       </c>
       <c r="N164" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O164" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P164" s="28"/>
-      <c r="Q164" s="44"/>
-      <c r="R164" s="45"/>
-    </row>
-    <row r="165" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q164" s="43"/>
+    </row>
+    <row r="165" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="31">
         <v>45818</v>
       </c>
@@ -14320,17 +14181,16 @@
       </c>
       <c r="N165" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O165" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P165" s="28"/>
-      <c r="Q165" s="44"/>
-      <c r="R165" s="45"/>
-    </row>
-    <row r="166" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q165" s="43"/>
+    </row>
+    <row r="166" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="31">
         <v>45819</v>
       </c>
@@ -14364,17 +14224,16 @@
       </c>
       <c r="N166" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O166" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P166" s="28"/>
-      <c r="Q166" s="44"/>
-      <c r="R166" s="45"/>
-    </row>
-    <row r="167" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q166" s="43"/>
+    </row>
+    <row r="167" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="31">
         <v>45820</v>
       </c>
@@ -14408,17 +14267,16 @@
       </c>
       <c r="N167" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O167" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P167" s="28"/>
-      <c r="Q167" s="44"/>
-      <c r="R167" s="45"/>
-    </row>
-    <row r="168" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q167" s="43"/>
+    </row>
+    <row r="168" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="31">
         <v>45821</v>
       </c>
@@ -14452,17 +14310,16 @@
       </c>
       <c r="N168" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O168" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P168" s="28"/>
-      <c r="Q168" s="44"/>
-      <c r="R168" s="45"/>
-    </row>
-    <row r="169" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q168" s="43"/>
+    </row>
+    <row r="169" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="31">
         <v>45822</v>
       </c>
@@ -14496,17 +14353,16 @@
       </c>
       <c r="N169" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O169" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P169" s="28"/>
-      <c r="Q169" s="44"/>
-      <c r="R169" s="45"/>
-    </row>
-    <row r="170" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q169" s="43"/>
+    </row>
+    <row r="170" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="31">
         <v>45823</v>
       </c>
@@ -14540,17 +14396,16 @@
       </c>
       <c r="N170" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O170" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P170" s="28"/>
-      <c r="Q170" s="44"/>
-      <c r="R170" s="45"/>
-    </row>
-    <row r="171" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q170" s="43"/>
+    </row>
+    <row r="171" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="31">
         <v>45824</v>
       </c>
@@ -14584,17 +14439,16 @@
       </c>
       <c r="N171" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O171" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P171" s="28"/>
-      <c r="Q171" s="44"/>
-      <c r="R171" s="45"/>
-    </row>
-    <row r="172" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q171" s="43"/>
+    </row>
+    <row r="172" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="31">
         <v>45825</v>
       </c>
@@ -14628,17 +14482,16 @@
       </c>
       <c r="N172" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O172" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P172" s="28"/>
-      <c r="Q172" s="44"/>
-      <c r="R172" s="45"/>
-    </row>
-    <row r="173" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q172" s="43"/>
+    </row>
+    <row r="173" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="31">
         <v>45826</v>
       </c>
@@ -14672,17 +14525,16 @@
       </c>
       <c r="N173" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O173" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P173" s="28"/>
-      <c r="Q173" s="44"/>
-      <c r="R173" s="45"/>
-    </row>
-    <row r="174" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q173" s="43"/>
+    </row>
+    <row r="174" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="31">
         <v>45827</v>
       </c>
@@ -14716,17 +14568,16 @@
       </c>
       <c r="N174" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O174" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P174" s="28"/>
-      <c r="Q174" s="44"/>
-      <c r="R174" s="45"/>
-    </row>
-    <row r="175" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q174" s="43"/>
+    </row>
+    <row r="175" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="31">
         <v>45828</v>
       </c>
@@ -14760,17 +14611,16 @@
       </c>
       <c r="N175" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O175" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P175" s="28"/>
-      <c r="Q175" s="44"/>
-      <c r="R175" s="45"/>
-    </row>
-    <row r="176" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q175" s="43"/>
+    </row>
+    <row r="176" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="31">
         <v>45829</v>
       </c>
@@ -14804,17 +14654,16 @@
       </c>
       <c r="N176" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O176" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P176" s="28"/>
-      <c r="Q176" s="44"/>
-      <c r="R176" s="45"/>
-    </row>
-    <row r="177" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q176" s="43"/>
+    </row>
+    <row r="177" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="31">
         <v>45830</v>
       </c>
@@ -14848,17 +14697,16 @@
       </c>
       <c r="N177" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O177" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P177" s="28"/>
-      <c r="Q177" s="44"/>
-      <c r="R177" s="45"/>
-    </row>
-    <row r="178" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q177" s="43"/>
+    </row>
+    <row r="178" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="31">
         <v>45831</v>
       </c>
@@ -14892,17 +14740,16 @@
       </c>
       <c r="N178" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O178" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P178" s="28"/>
-      <c r="Q178" s="44"/>
-      <c r="R178" s="45"/>
-    </row>
-    <row r="179" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q178" s="43"/>
+    </row>
+    <row r="179" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="31">
         <v>45832</v>
       </c>
@@ -14936,17 +14783,16 @@
       </c>
       <c r="N179" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O179" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P179" s="28"/>
-      <c r="Q179" s="44"/>
-      <c r="R179" s="45"/>
-    </row>
-    <row r="180" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q179" s="43"/>
+    </row>
+    <row r="180" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="31">
         <v>45833</v>
       </c>
@@ -14980,17 +14826,16 @@
       </c>
       <c r="N180" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O180" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P180" s="28"/>
-      <c r="Q180" s="44"/>
-      <c r="R180" s="45"/>
-    </row>
-    <row r="181" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q180" s="43"/>
+    </row>
+    <row r="181" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="31">
         <v>45834</v>
       </c>
@@ -15024,17 +14869,16 @@
       </c>
       <c r="N181" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O181" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P181" s="28"/>
-      <c r="Q181" s="44"/>
-      <c r="R181" s="45"/>
-    </row>
-    <row r="182" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q181" s="43"/>
+    </row>
+    <row r="182" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="31">
         <v>45835</v>
       </c>
@@ -15068,17 +14912,16 @@
       </c>
       <c r="N182" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O182" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P182" s="28"/>
-      <c r="Q182" s="44"/>
-      <c r="R182" s="45"/>
-    </row>
-    <row r="183" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q182" s="43"/>
+    </row>
+    <row r="183" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="31">
         <v>45836</v>
       </c>
@@ -15112,17 +14955,16 @@
       </c>
       <c r="N183" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O183" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P183" s="28"/>
-      <c r="Q183" s="44"/>
-      <c r="R183" s="45"/>
-    </row>
-    <row r="184" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q183" s="43"/>
+    </row>
+    <row r="184" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="31">
         <v>45837</v>
       </c>
@@ -15156,17 +14998,16 @@
       </c>
       <c r="N184" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O184" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P184" s="28"/>
-      <c r="Q184" s="44"/>
-      <c r="R184" s="45"/>
-    </row>
-    <row r="185" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q184" s="43"/>
+    </row>
+    <row r="185" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="31">
         <v>45838</v>
       </c>
@@ -15200,17 +15041,16 @@
       </c>
       <c r="N185" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O185" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P185" s="28"/>
-      <c r="Q185" s="44"/>
-      <c r="R185" s="45"/>
-    </row>
-    <row r="186" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q185" s="43"/>
+    </row>
+    <row r="186" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="31">
         <v>45839</v>
       </c>
@@ -15244,17 +15084,16 @@
       </c>
       <c r="N186" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O186" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P186" s="28"/>
-      <c r="Q186" s="44"/>
-      <c r="R186" s="45"/>
-    </row>
-    <row r="187" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q186" s="43"/>
+    </row>
+    <row r="187" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="31">
         <v>45840</v>
       </c>
@@ -15288,17 +15127,16 @@
       </c>
       <c r="N187" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O187" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P187" s="28"/>
-      <c r="Q187" s="44"/>
-      <c r="R187" s="45"/>
-    </row>
-    <row r="188" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q187" s="43"/>
+    </row>
+    <row r="188" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="31">
         <v>45841</v>
       </c>
@@ -15332,17 +15170,16 @@
       </c>
       <c r="N188" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O188" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P188" s="28"/>
-      <c r="Q188" s="44"/>
-      <c r="R188" s="45"/>
-    </row>
-    <row r="189" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q188" s="43"/>
+    </row>
+    <row r="189" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="31">
         <v>45842</v>
       </c>
@@ -15376,17 +15213,16 @@
       </c>
       <c r="N189" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O189" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P189" s="28"/>
-      <c r="Q189" s="44"/>
-      <c r="R189" s="45"/>
-    </row>
-    <row r="190" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q189" s="43"/>
+    </row>
+    <row r="190" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="31">
         <v>45843</v>
       </c>
@@ -15420,17 +15256,16 @@
       </c>
       <c r="N190" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O190" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P190" s="28"/>
-      <c r="Q190" s="44"/>
-      <c r="R190" s="45"/>
-    </row>
-    <row r="191" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q190" s="43"/>
+    </row>
+    <row r="191" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="31">
         <v>45844</v>
       </c>
@@ -15464,17 +15299,16 @@
       </c>
       <c r="N191" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O191" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P191" s="28"/>
-      <c r="Q191" s="44"/>
-      <c r="R191" s="45"/>
-    </row>
-    <row r="192" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q191" s="43"/>
+    </row>
+    <row r="192" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="31">
         <v>45845</v>
       </c>
@@ -15508,17 +15342,16 @@
       </c>
       <c r="N192" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O192" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P192" s="28"/>
-      <c r="Q192" s="44"/>
-      <c r="R192" s="45"/>
-    </row>
-    <row r="193" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q192" s="43"/>
+    </row>
+    <row r="193" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="31">
         <v>45846</v>
       </c>
@@ -15552,17 +15385,16 @@
       </c>
       <c r="N193" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O193" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P193" s="28"/>
-      <c r="Q193" s="44"/>
-      <c r="R193" s="45"/>
-    </row>
-    <row r="194" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q193" s="43"/>
+    </row>
+    <row r="194" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="31">
         <v>45847</v>
       </c>
@@ -15596,17 +15428,16 @@
       </c>
       <c r="N194" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O194" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P194" s="28"/>
-      <c r="Q194" s="44"/>
-      <c r="R194" s="45"/>
-    </row>
-    <row r="195" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q194" s="43"/>
+    </row>
+    <row r="195" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="31">
         <v>45848</v>
       </c>
@@ -15640,17 +15471,16 @@
       </c>
       <c r="N195" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O195" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P195" s="28"/>
-      <c r="Q195" s="44"/>
-      <c r="R195" s="45"/>
-    </row>
-    <row r="196" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q195" s="43"/>
+    </row>
+    <row r="196" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="31">
         <v>45849</v>
       </c>
@@ -15684,17 +15514,16 @@
       </c>
       <c r="N196" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O196" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P196" s="28"/>
-      <c r="Q196" s="44"/>
-      <c r="R196" s="45"/>
-    </row>
-    <row r="197" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q196" s="43"/>
+    </row>
+    <row r="197" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="31">
         <v>45850</v>
       </c>
@@ -15728,17 +15557,16 @@
       </c>
       <c r="N197" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O197" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P197" s="28"/>
-      <c r="Q197" s="44"/>
-      <c r="R197" s="45"/>
-    </row>
-    <row r="198" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q197" s="43"/>
+    </row>
+    <row r="198" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="31">
         <v>45851</v>
       </c>
@@ -15772,17 +15600,16 @@
       </c>
       <c r="N198" s="41">
         <f t="shared" si="16"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O198" s="41">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P198" s="28"/>
-      <c r="Q198" s="44"/>
-      <c r="R198" s="45"/>
-    </row>
-    <row r="199" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q198" s="43"/>
+    </row>
+    <row r="199" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="31">
         <v>45852</v>
       </c>
@@ -15816,17 +15643,16 @@
       </c>
       <c r="N199" s="41">
         <f t="shared" ref="N199:N262" si="22">O198</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O199" s="41">
         <f t="shared" ref="O199:O262" si="23">IF(Q199&gt;N199,Q199,N199)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P199" s="28"/>
-      <c r="Q199" s="44"/>
-      <c r="R199" s="45"/>
-    </row>
-    <row r="200" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q199" s="43"/>
+    </row>
+    <row r="200" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="31">
         <v>45853</v>
       </c>
@@ -15860,17 +15686,16 @@
       </c>
       <c r="N200" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O200" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P200" s="28"/>
-      <c r="Q200" s="44"/>
-      <c r="R200" s="45"/>
-    </row>
-    <row r="201" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q200" s="43"/>
+    </row>
+    <row r="201" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="31">
         <v>45854</v>
       </c>
@@ -15904,17 +15729,16 @@
       </c>
       <c r="N201" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O201" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P201" s="28"/>
-      <c r="Q201" s="44"/>
-      <c r="R201" s="45"/>
-    </row>
-    <row r="202" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q201" s="43"/>
+    </row>
+    <row r="202" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="31">
         <v>45855</v>
       </c>
@@ -15948,17 +15772,16 @@
       </c>
       <c r="N202" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O202" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P202" s="28"/>
-      <c r="Q202" s="44"/>
-      <c r="R202" s="45"/>
-    </row>
-    <row r="203" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q202" s="43"/>
+    </row>
+    <row r="203" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="31">
         <v>45856</v>
       </c>
@@ -15992,17 +15815,16 @@
       </c>
       <c r="N203" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O203" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P203" s="28"/>
-      <c r="Q203" s="44"/>
-      <c r="R203" s="45"/>
-    </row>
-    <row r="204" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q203" s="43"/>
+    </row>
+    <row r="204" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="31">
         <v>45857</v>
       </c>
@@ -16036,17 +15858,16 @@
       </c>
       <c r="N204" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O204" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P204" s="28"/>
-      <c r="Q204" s="44"/>
-      <c r="R204" s="45"/>
-    </row>
-    <row r="205" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q204" s="43"/>
+    </row>
+    <row r="205" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="31">
         <v>45858</v>
       </c>
@@ -16080,17 +15901,16 @@
       </c>
       <c r="N205" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O205" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P205" s="28"/>
-      <c r="Q205" s="44"/>
-      <c r="R205" s="45"/>
-    </row>
-    <row r="206" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q205" s="43"/>
+    </row>
+    <row r="206" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="31">
         <v>45859</v>
       </c>
@@ -16124,17 +15944,16 @@
       </c>
       <c r="N206" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O206" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P206" s="28"/>
-      <c r="Q206" s="44"/>
-      <c r="R206" s="45"/>
-    </row>
-    <row r="207" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q206" s="43"/>
+    </row>
+    <row r="207" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="31">
         <v>45860</v>
       </c>
@@ -16168,17 +15987,16 @@
       </c>
       <c r="N207" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O207" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P207" s="28"/>
-      <c r="Q207" s="44"/>
-      <c r="R207" s="45"/>
-    </row>
-    <row r="208" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q207" s="43"/>
+    </row>
+    <row r="208" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="31">
         <v>45861</v>
       </c>
@@ -16212,17 +16030,16 @@
       </c>
       <c r="N208" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O208" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P208" s="28"/>
-      <c r="Q208" s="44"/>
-      <c r="R208" s="45"/>
-    </row>
-    <row r="209" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q208" s="43"/>
+    </row>
+    <row r="209" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="31">
         <v>45862</v>
       </c>
@@ -16256,17 +16073,16 @@
       </c>
       <c r="N209" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O209" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P209" s="28"/>
-      <c r="Q209" s="44"/>
-      <c r="R209" s="45"/>
-    </row>
-    <row r="210" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q209" s="43"/>
+    </row>
+    <row r="210" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="31">
         <v>45863</v>
       </c>
@@ -16300,17 +16116,16 @@
       </c>
       <c r="N210" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O210" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P210" s="28"/>
-      <c r="Q210" s="44"/>
-      <c r="R210" s="45"/>
-    </row>
-    <row r="211" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q210" s="43"/>
+    </row>
+    <row r="211" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="31">
         <v>45864</v>
       </c>
@@ -16344,17 +16159,16 @@
       </c>
       <c r="N211" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O211" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P211" s="28"/>
-      <c r="Q211" s="44"/>
-      <c r="R211" s="45"/>
-    </row>
-    <row r="212" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q211" s="43"/>
+    </row>
+    <row r="212" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="31">
         <v>45865</v>
       </c>
@@ -16388,17 +16202,16 @@
       </c>
       <c r="N212" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O212" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P212" s="28"/>
-      <c r="Q212" s="44"/>
-      <c r="R212" s="45"/>
-    </row>
-    <row r="213" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q212" s="43"/>
+    </row>
+    <row r="213" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="31">
         <v>45866</v>
       </c>
@@ -16432,17 +16245,16 @@
       </c>
       <c r="N213" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O213" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P213" s="28"/>
-      <c r="Q213" s="44"/>
-      <c r="R213" s="45"/>
-    </row>
-    <row r="214" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q213" s="43"/>
+    </row>
+    <row r="214" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="31">
         <v>45867</v>
       </c>
@@ -16476,17 +16288,16 @@
       </c>
       <c r="N214" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O214" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P214" s="28"/>
-      <c r="Q214" s="44"/>
-      <c r="R214" s="45"/>
-    </row>
-    <row r="215" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q214" s="43"/>
+    </row>
+    <row r="215" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="31">
         <v>45868</v>
       </c>
@@ -16520,17 +16331,16 @@
       </c>
       <c r="N215" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O215" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P215" s="28"/>
-      <c r="Q215" s="44"/>
-      <c r="R215" s="45"/>
-    </row>
-    <row r="216" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q215" s="43"/>
+    </row>
+    <row r="216" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="31">
         <v>45869</v>
       </c>
@@ -16564,17 +16374,16 @@
       </c>
       <c r="N216" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O216" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P216" s="28"/>
-      <c r="Q216" s="44"/>
-      <c r="R216" s="45"/>
-    </row>
-    <row r="217" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q216" s="43"/>
+    </row>
+    <row r="217" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="31">
         <v>45870</v>
       </c>
@@ -16608,17 +16417,16 @@
       </c>
       <c r="N217" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O217" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P217" s="28"/>
-      <c r="Q217" s="44"/>
-      <c r="R217" s="45"/>
-    </row>
-    <row r="218" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q217" s="43"/>
+    </row>
+    <row r="218" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="31">
         <v>45871</v>
       </c>
@@ -16652,17 +16460,16 @@
       </c>
       <c r="N218" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O218" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P218" s="28"/>
-      <c r="Q218" s="44"/>
-      <c r="R218" s="45"/>
-    </row>
-    <row r="219" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q218" s="43"/>
+    </row>
+    <row r="219" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="31">
         <v>45872</v>
       </c>
@@ -16696,17 +16503,16 @@
       </c>
       <c r="N219" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O219" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P219" s="28"/>
-      <c r="Q219" s="44"/>
-      <c r="R219" s="45"/>
-    </row>
-    <row r="220" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q219" s="43"/>
+    </row>
+    <row r="220" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="31">
         <v>45873</v>
       </c>
@@ -16740,17 +16546,16 @@
       </c>
       <c r="N220" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O220" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P220" s="28"/>
-      <c r="Q220" s="44"/>
-      <c r="R220" s="45"/>
-    </row>
-    <row r="221" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q220" s="43"/>
+    </row>
+    <row r="221" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="31">
         <v>45874</v>
       </c>
@@ -16784,17 +16589,16 @@
       </c>
       <c r="N221" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O221" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P221" s="28"/>
-      <c r="Q221" s="44"/>
-      <c r="R221" s="45"/>
-    </row>
-    <row r="222" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q221" s="43"/>
+    </row>
+    <row r="222" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="31">
         <v>45875</v>
       </c>
@@ -16828,17 +16632,16 @@
       </c>
       <c r="N222" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O222" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P222" s="28"/>
-      <c r="Q222" s="44"/>
-      <c r="R222" s="45"/>
-    </row>
-    <row r="223" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q222" s="43"/>
+    </row>
+    <row r="223" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="31">
         <v>45876</v>
       </c>
@@ -16872,17 +16675,16 @@
       </c>
       <c r="N223" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O223" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P223" s="28"/>
-      <c r="Q223" s="44"/>
-      <c r="R223" s="45"/>
-    </row>
-    <row r="224" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q223" s="43"/>
+    </row>
+    <row r="224" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="31">
         <v>45877</v>
       </c>
@@ -16916,17 +16718,16 @@
       </c>
       <c r="N224" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O224" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P224" s="28"/>
-      <c r="Q224" s="44"/>
-      <c r="R224" s="45"/>
-    </row>
-    <row r="225" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q224" s="43"/>
+    </row>
+    <row r="225" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="31">
         <v>45878</v>
       </c>
@@ -16960,17 +16761,16 @@
       </c>
       <c r="N225" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O225" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P225" s="28"/>
-      <c r="Q225" s="44"/>
-      <c r="R225" s="45"/>
-    </row>
-    <row r="226" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q225" s="43"/>
+    </row>
+    <row r="226" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="31">
         <v>45879</v>
       </c>
@@ -17004,17 +16804,16 @@
       </c>
       <c r="N226" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O226" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P226" s="28"/>
-      <c r="Q226" s="44"/>
-      <c r="R226" s="45"/>
-    </row>
-    <row r="227" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q226" s="43"/>
+    </row>
+    <row r="227" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="31">
         <v>45880</v>
       </c>
@@ -17048,17 +16847,16 @@
       </c>
       <c r="N227" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O227" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P227" s="28"/>
-      <c r="Q227" s="44"/>
-      <c r="R227" s="45"/>
-    </row>
-    <row r="228" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q227" s="43"/>
+    </row>
+    <row r="228" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="31">
         <v>45881</v>
       </c>
@@ -17092,17 +16890,16 @@
       </c>
       <c r="N228" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O228" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P228" s="28"/>
-      <c r="Q228" s="44"/>
-      <c r="R228" s="45"/>
-    </row>
-    <row r="229" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q228" s="43"/>
+    </row>
+    <row r="229" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="31">
         <v>45882</v>
       </c>
@@ -17136,17 +16933,16 @@
       </c>
       <c r="N229" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O229" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P229" s="28"/>
-      <c r="Q229" s="44"/>
-      <c r="R229" s="45"/>
-    </row>
-    <row r="230" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q229" s="43"/>
+    </row>
+    <row r="230" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="31">
         <v>45883</v>
       </c>
@@ -17180,17 +16976,16 @@
       </c>
       <c r="N230" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O230" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P230" s="28"/>
-      <c r="Q230" s="44"/>
-      <c r="R230" s="45"/>
-    </row>
-    <row r="231" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q230" s="43"/>
+    </row>
+    <row r="231" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="31">
         <v>45884</v>
       </c>
@@ -17224,17 +17019,16 @@
       </c>
       <c r="N231" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O231" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P231" s="28"/>
-      <c r="Q231" s="44"/>
-      <c r="R231" s="45"/>
-    </row>
-    <row r="232" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q231" s="43"/>
+    </row>
+    <row r="232" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="31">
         <v>45885</v>
       </c>
@@ -17268,17 +17062,16 @@
       </c>
       <c r="N232" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O232" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P232" s="28"/>
-      <c r="Q232" s="44"/>
-      <c r="R232" s="45"/>
-    </row>
-    <row r="233" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q232" s="43"/>
+    </row>
+    <row r="233" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="31">
         <v>45886</v>
       </c>
@@ -17312,17 +17105,16 @@
       </c>
       <c r="N233" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O233" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P233" s="28"/>
-      <c r="Q233" s="44"/>
-      <c r="R233" s="45"/>
-    </row>
-    <row r="234" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q233" s="43"/>
+    </row>
+    <row r="234" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="31">
         <v>45887</v>
       </c>
@@ -17356,17 +17148,16 @@
       </c>
       <c r="N234" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O234" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P234" s="28"/>
-      <c r="Q234" s="44"/>
-      <c r="R234" s="45"/>
-    </row>
-    <row r="235" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q234" s="43"/>
+    </row>
+    <row r="235" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="31">
         <v>45888</v>
       </c>
@@ -17400,17 +17191,16 @@
       </c>
       <c r="N235" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O235" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P235" s="28"/>
-      <c r="Q235" s="44"/>
-      <c r="R235" s="45"/>
-    </row>
-    <row r="236" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q235" s="43"/>
+    </row>
+    <row r="236" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="31">
         <v>45889</v>
       </c>
@@ -17444,17 +17234,16 @@
       </c>
       <c r="N236" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O236" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P236" s="28"/>
-      <c r="Q236" s="44"/>
-      <c r="R236" s="45"/>
-    </row>
-    <row r="237" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q236" s="43"/>
+    </row>
+    <row r="237" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="31">
         <v>45890</v>
       </c>
@@ -17488,17 +17277,16 @@
       </c>
       <c r="N237" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O237" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P237" s="28"/>
-      <c r="Q237" s="44"/>
-      <c r="R237" s="45"/>
-    </row>
-    <row r="238" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q237" s="43"/>
+    </row>
+    <row r="238" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="31">
         <v>45891</v>
       </c>
@@ -17532,17 +17320,16 @@
       </c>
       <c r="N238" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O238" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P238" s="28"/>
-      <c r="Q238" s="44"/>
-      <c r="R238" s="45"/>
-    </row>
-    <row r="239" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q238" s="43"/>
+    </row>
+    <row r="239" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="31">
         <v>45892</v>
       </c>
@@ -17576,17 +17363,16 @@
       </c>
       <c r="N239" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O239" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P239" s="28"/>
-      <c r="Q239" s="44"/>
-      <c r="R239" s="45"/>
-    </row>
-    <row r="240" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q239" s="43"/>
+    </row>
+    <row r="240" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="31">
         <v>45893</v>
       </c>
@@ -17620,17 +17406,16 @@
       </c>
       <c r="N240" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O240" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P240" s="28"/>
-      <c r="Q240" s="44"/>
-      <c r="R240" s="45"/>
-    </row>
-    <row r="241" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q240" s="43"/>
+    </row>
+    <row r="241" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="31">
         <v>45894</v>
       </c>
@@ -17664,17 +17449,16 @@
       </c>
       <c r="N241" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O241" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P241" s="28"/>
-      <c r="Q241" s="44"/>
-      <c r="R241" s="45"/>
-    </row>
-    <row r="242" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q241" s="43"/>
+    </row>
+    <row r="242" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="31">
         <v>45895</v>
       </c>
@@ -17708,17 +17492,16 @@
       </c>
       <c r="N242" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O242" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P242" s="28"/>
-      <c r="Q242" s="44"/>
-      <c r="R242" s="45"/>
-    </row>
-    <row r="243" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q242" s="43"/>
+    </row>
+    <row r="243" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="31">
         <v>45896</v>
       </c>
@@ -17752,17 +17535,16 @@
       </c>
       <c r="N243" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O243" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P243" s="28"/>
-      <c r="Q243" s="44"/>
-      <c r="R243" s="45"/>
-    </row>
-    <row r="244" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q243" s="43"/>
+    </row>
+    <row r="244" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="31">
         <v>45897</v>
       </c>
@@ -17796,17 +17578,16 @@
       </c>
       <c r="N244" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O244" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P244" s="28"/>
-      <c r="Q244" s="44"/>
-      <c r="R244" s="45"/>
-    </row>
-    <row r="245" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q244" s="43"/>
+    </row>
+    <row r="245" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="31">
         <v>45898</v>
       </c>
@@ -17840,17 +17621,16 @@
       </c>
       <c r="N245" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O245" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P245" s="28"/>
-      <c r="Q245" s="44"/>
-      <c r="R245" s="45"/>
-    </row>
-    <row r="246" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q245" s="43"/>
+    </row>
+    <row r="246" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="31">
         <v>45899</v>
       </c>
@@ -17884,17 +17664,16 @@
       </c>
       <c r="N246" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O246" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P246" s="28"/>
-      <c r="Q246" s="44"/>
-      <c r="R246" s="45"/>
-    </row>
-    <row r="247" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q246" s="43"/>
+    </row>
+    <row r="247" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="31">
         <v>45900</v>
       </c>
@@ -17928,17 +17707,16 @@
       </c>
       <c r="N247" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O247" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P247" s="28"/>
-      <c r="Q247" s="44"/>
-      <c r="R247" s="45"/>
-    </row>
-    <row r="248" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q247" s="43"/>
+    </row>
+    <row r="248" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="31">
         <v>45901</v>
       </c>
@@ -17972,17 +17750,16 @@
       </c>
       <c r="N248" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O248" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P248" s="28"/>
-      <c r="Q248" s="44"/>
-      <c r="R248" s="45"/>
-    </row>
-    <row r="249" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q248" s="43"/>
+    </row>
+    <row r="249" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="31">
         <v>45902</v>
       </c>
@@ -18016,17 +17793,16 @@
       </c>
       <c r="N249" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O249" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P249" s="28"/>
-      <c r="Q249" s="44"/>
-      <c r="R249" s="45"/>
-    </row>
-    <row r="250" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q249" s="43"/>
+    </row>
+    <row r="250" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="31">
         <v>45903</v>
       </c>
@@ -18060,17 +17836,16 @@
       </c>
       <c r="N250" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O250" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P250" s="28"/>
-      <c r="Q250" s="44"/>
-      <c r="R250" s="45"/>
-    </row>
-    <row r="251" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q250" s="43"/>
+    </row>
+    <row r="251" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="31">
         <v>45904</v>
       </c>
@@ -18104,17 +17879,16 @@
       </c>
       <c r="N251" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O251" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P251" s="28"/>
-      <c r="Q251" s="44"/>
-      <c r="R251" s="45"/>
-    </row>
-    <row r="252" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q251" s="43"/>
+    </row>
+    <row r="252" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="31">
         <v>45905</v>
       </c>
@@ -18148,17 +17922,16 @@
       </c>
       <c r="N252" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O252" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P252" s="28"/>
-      <c r="Q252" s="44"/>
-      <c r="R252" s="45"/>
-    </row>
-    <row r="253" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q252" s="43"/>
+    </row>
+    <row r="253" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="31">
         <v>45906</v>
       </c>
@@ -18192,17 +17965,16 @@
       </c>
       <c r="N253" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O253" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P253" s="28"/>
-      <c r="Q253" s="44"/>
-      <c r="R253" s="45"/>
-    </row>
-    <row r="254" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q253" s="43"/>
+    </row>
+    <row r="254" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="31">
         <v>45907</v>
       </c>
@@ -18236,17 +18008,16 @@
       </c>
       <c r="N254" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O254" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P254" s="28"/>
-      <c r="Q254" s="44"/>
-      <c r="R254" s="45"/>
-    </row>
-    <row r="255" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q254" s="43"/>
+    </row>
+    <row r="255" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="31">
         <v>45908</v>
       </c>
@@ -18280,17 +18051,16 @@
       </c>
       <c r="N255" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O255" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P255" s="28"/>
-      <c r="Q255" s="44"/>
-      <c r="R255" s="45"/>
-    </row>
-    <row r="256" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q255" s="43"/>
+    </row>
+    <row r="256" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="31">
         <v>45909</v>
       </c>
@@ -18324,17 +18094,16 @@
       </c>
       <c r="N256" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O256" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P256" s="28"/>
-      <c r="Q256" s="44"/>
-      <c r="R256" s="45"/>
-    </row>
-    <row r="257" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q256" s="43"/>
+    </row>
+    <row r="257" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="31">
         <v>45910</v>
       </c>
@@ -18368,17 +18137,16 @@
       </c>
       <c r="N257" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O257" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P257" s="28"/>
-      <c r="Q257" s="44"/>
-      <c r="R257" s="45"/>
-    </row>
-    <row r="258" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q257" s="43"/>
+    </row>
+    <row r="258" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="31">
         <v>45911</v>
       </c>
@@ -18412,17 +18180,16 @@
       </c>
       <c r="N258" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O258" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P258" s="28"/>
-      <c r="Q258" s="44"/>
-      <c r="R258" s="45"/>
-    </row>
-    <row r="259" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q258" s="43"/>
+    </row>
+    <row r="259" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="31">
         <v>45912</v>
       </c>
@@ -18456,17 +18223,16 @@
       </c>
       <c r="N259" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O259" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P259" s="28"/>
-      <c r="Q259" s="44"/>
-      <c r="R259" s="45"/>
-    </row>
-    <row r="260" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q259" s="43"/>
+    </row>
+    <row r="260" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="31">
         <v>45913</v>
       </c>
@@ -18500,17 +18266,16 @@
       </c>
       <c r="N260" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O260" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P260" s="28"/>
-      <c r="Q260" s="44"/>
-      <c r="R260" s="45"/>
-    </row>
-    <row r="261" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q260" s="43"/>
+    </row>
+    <row r="261" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="31">
         <v>45914</v>
       </c>
@@ -18544,17 +18309,16 @@
       </c>
       <c r="N261" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O261" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P261" s="28"/>
-      <c r="Q261" s="44"/>
-      <c r="R261" s="45"/>
-    </row>
-    <row r="262" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q261" s="43"/>
+    </row>
+    <row r="262" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="31">
         <v>45915</v>
       </c>
@@ -18588,17 +18352,16 @@
       </c>
       <c r="N262" s="41">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O262" s="41">
         <f t="shared" si="23"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P262" s="28"/>
-      <c r="Q262" s="44"/>
-      <c r="R262" s="45"/>
-    </row>
-    <row r="263" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q262" s="43"/>
+    </row>
+    <row r="263" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="31">
         <v>45916</v>
       </c>
@@ -18632,17 +18395,16 @@
       </c>
       <c r="N263" s="41">
         <f t="shared" ref="N263:N326" si="28">O262</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O263" s="41">
         <f t="shared" ref="O263:O326" si="29">IF(Q263&gt;N263,Q263,N263)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P263" s="28"/>
-      <c r="Q263" s="44"/>
-      <c r="R263" s="45"/>
-    </row>
-    <row r="264" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q263" s="43"/>
+    </row>
+    <row r="264" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="31">
         <v>45917</v>
       </c>
@@ -18676,17 +18438,16 @@
       </c>
       <c r="N264" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O264" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P264" s="28"/>
-      <c r="Q264" s="44"/>
-      <c r="R264" s="45"/>
-    </row>
-    <row r="265" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q264" s="43"/>
+    </row>
+    <row r="265" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="31">
         <v>45918</v>
       </c>
@@ -18720,17 +18481,16 @@
       </c>
       <c r="N265" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O265" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P265" s="28"/>
-      <c r="Q265" s="44"/>
-      <c r="R265" s="45"/>
-    </row>
-    <row r="266" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q265" s="43"/>
+    </row>
+    <row r="266" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="31">
         <v>45919</v>
       </c>
@@ -18764,17 +18524,16 @@
       </c>
       <c r="N266" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O266" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P266" s="28"/>
-      <c r="Q266" s="44"/>
-      <c r="R266" s="45"/>
-    </row>
-    <row r="267" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q266" s="43"/>
+    </row>
+    <row r="267" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="31">
         <v>45920</v>
       </c>
@@ -18808,17 +18567,16 @@
       </c>
       <c r="N267" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O267" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P267" s="28"/>
-      <c r="Q267" s="44"/>
-      <c r="R267" s="45"/>
-    </row>
-    <row r="268" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q267" s="43"/>
+    </row>
+    <row r="268" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="31">
         <v>45921</v>
       </c>
@@ -18852,17 +18610,16 @@
       </c>
       <c r="N268" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O268" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P268" s="28"/>
-      <c r="Q268" s="44"/>
-      <c r="R268" s="45"/>
-    </row>
-    <row r="269" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q268" s="43"/>
+    </row>
+    <row r="269" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="31">
         <v>45922</v>
       </c>
@@ -18896,17 +18653,16 @@
       </c>
       <c r="N269" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O269" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P269" s="28"/>
-      <c r="Q269" s="44"/>
-      <c r="R269" s="45"/>
-    </row>
-    <row r="270" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q269" s="43"/>
+    </row>
+    <row r="270" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="31">
         <v>45923</v>
       </c>
@@ -18940,17 +18696,16 @@
       </c>
       <c r="N270" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O270" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P270" s="28"/>
-      <c r="Q270" s="44"/>
-      <c r="R270" s="45"/>
-    </row>
-    <row r="271" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q270" s="43"/>
+    </row>
+    <row r="271" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="31">
         <v>45924</v>
       </c>
@@ -18984,17 +18739,16 @@
       </c>
       <c r="N271" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O271" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P271" s="28"/>
-      <c r="Q271" s="44"/>
-      <c r="R271" s="45"/>
-    </row>
-    <row r="272" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q271" s="43"/>
+    </row>
+    <row r="272" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="31">
         <v>45925</v>
       </c>
@@ -19028,17 +18782,16 @@
       </c>
       <c r="N272" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O272" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P272" s="28"/>
-      <c r="Q272" s="44"/>
-      <c r="R272" s="45"/>
-    </row>
-    <row r="273" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q272" s="43"/>
+    </row>
+    <row r="273" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="31">
         <v>45926</v>
       </c>
@@ -19072,17 +18825,16 @@
       </c>
       <c r="N273" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O273" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P273" s="28"/>
-      <c r="Q273" s="44"/>
-      <c r="R273" s="45"/>
-    </row>
-    <row r="274" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q273" s="43"/>
+    </row>
+    <row r="274" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="31">
         <v>45927</v>
       </c>
@@ -19116,17 +18868,16 @@
       </c>
       <c r="N274" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O274" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P274" s="28"/>
-      <c r="Q274" s="44"/>
-      <c r="R274" s="45"/>
-    </row>
-    <row r="275" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q274" s="43"/>
+    </row>
+    <row r="275" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="31">
         <v>45928</v>
       </c>
@@ -19160,17 +18911,16 @@
       </c>
       <c r="N275" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O275" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P275" s="28"/>
-      <c r="Q275" s="44"/>
-      <c r="R275" s="45"/>
-    </row>
-    <row r="276" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q275" s="43"/>
+    </row>
+    <row r="276" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="31">
         <v>45929</v>
       </c>
@@ -19204,17 +18954,16 @@
       </c>
       <c r="N276" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O276" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P276" s="28"/>
-      <c r="Q276" s="44"/>
-      <c r="R276" s="45"/>
-    </row>
-    <row r="277" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q276" s="43"/>
+    </row>
+    <row r="277" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="31">
         <v>45930</v>
       </c>
@@ -19248,17 +18997,16 @@
       </c>
       <c r="N277" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O277" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P277" s="28"/>
-      <c r="Q277" s="44"/>
-      <c r="R277" s="45"/>
-    </row>
-    <row r="278" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q277" s="43"/>
+    </row>
+    <row r="278" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="31">
         <v>45931</v>
       </c>
@@ -19292,17 +19040,16 @@
       </c>
       <c r="N278" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O278" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P278" s="28"/>
-      <c r="Q278" s="44"/>
-      <c r="R278" s="45"/>
-    </row>
-    <row r="279" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q278" s="43"/>
+    </row>
+    <row r="279" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="31">
         <v>45932</v>
       </c>
@@ -19336,17 +19083,16 @@
       </c>
       <c r="N279" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O279" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P279" s="28"/>
-      <c r="Q279" s="44"/>
-      <c r="R279" s="45"/>
-    </row>
-    <row r="280" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q279" s="43"/>
+    </row>
+    <row r="280" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="31">
         <v>45933</v>
       </c>
@@ -19380,17 +19126,16 @@
       </c>
       <c r="N280" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O280" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P280" s="28"/>
-      <c r="Q280" s="44"/>
-      <c r="R280" s="45"/>
-    </row>
-    <row r="281" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q280" s="43"/>
+    </row>
+    <row r="281" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="31">
         <v>45934</v>
       </c>
@@ -19424,17 +19169,16 @@
       </c>
       <c r="N281" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O281" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P281" s="28"/>
-      <c r="Q281" s="44"/>
-      <c r="R281" s="45"/>
-    </row>
-    <row r="282" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q281" s="43"/>
+    </row>
+    <row r="282" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="31">
         <v>45935</v>
       </c>
@@ -19468,17 +19212,16 @@
       </c>
       <c r="N282" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O282" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P282" s="28"/>
-      <c r="Q282" s="44"/>
-      <c r="R282" s="45"/>
-    </row>
-    <row r="283" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q282" s="43"/>
+    </row>
+    <row r="283" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="31">
         <v>45936</v>
       </c>
@@ -19512,17 +19255,16 @@
       </c>
       <c r="N283" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O283" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P283" s="28"/>
-      <c r="Q283" s="44"/>
-      <c r="R283" s="45"/>
-    </row>
-    <row r="284" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q283" s="43"/>
+    </row>
+    <row r="284" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="31">
         <v>45937</v>
       </c>
@@ -19556,17 +19298,16 @@
       </c>
       <c r="N284" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O284" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P284" s="28"/>
-      <c r="Q284" s="44"/>
-      <c r="R284" s="45"/>
-    </row>
-    <row r="285" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q284" s="43"/>
+    </row>
+    <row r="285" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="31">
         <v>45938</v>
       </c>
@@ -19600,17 +19341,16 @@
       </c>
       <c r="N285" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O285" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P285" s="28"/>
-      <c r="Q285" s="44"/>
-      <c r="R285" s="45"/>
-    </row>
-    <row r="286" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q285" s="43"/>
+    </row>
+    <row r="286" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="31">
         <v>45939</v>
       </c>
@@ -19644,17 +19384,16 @@
       </c>
       <c r="N286" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O286" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P286" s="28"/>
-      <c r="Q286" s="44"/>
-      <c r="R286" s="45"/>
-    </row>
-    <row r="287" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q286" s="43"/>
+    </row>
+    <row r="287" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="31">
         <v>45940</v>
       </c>
@@ -19688,17 +19427,16 @@
       </c>
       <c r="N287" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O287" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P287" s="28"/>
-      <c r="Q287" s="44"/>
-      <c r="R287" s="45"/>
-    </row>
-    <row r="288" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q287" s="43"/>
+    </row>
+    <row r="288" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="31">
         <v>45941</v>
       </c>
@@ -19732,17 +19470,16 @@
       </c>
       <c r="N288" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O288" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P288" s="28"/>
-      <c r="Q288" s="44"/>
-      <c r="R288" s="45"/>
-    </row>
-    <row r="289" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q288" s="43"/>
+    </row>
+    <row r="289" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="31">
         <v>45942</v>
       </c>
@@ -19776,17 +19513,16 @@
       </c>
       <c r="N289" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O289" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P289" s="28"/>
-      <c r="Q289" s="44"/>
-      <c r="R289" s="45"/>
-    </row>
-    <row r="290" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q289" s="43"/>
+    </row>
+    <row r="290" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="31">
         <v>45943</v>
       </c>
@@ -19820,17 +19556,16 @@
       </c>
       <c r="N290" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O290" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P290" s="28"/>
-      <c r="Q290" s="44"/>
-      <c r="R290" s="45"/>
-    </row>
-    <row r="291" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q290" s="43"/>
+    </row>
+    <row r="291" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="31">
         <v>45944</v>
       </c>
@@ -19864,17 +19599,16 @@
       </c>
       <c r="N291" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O291" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P291" s="28"/>
-      <c r="Q291" s="44"/>
-      <c r="R291" s="45"/>
-    </row>
-    <row r="292" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q291" s="43"/>
+    </row>
+    <row r="292" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="31">
         <v>45945</v>
       </c>
@@ -19908,17 +19642,16 @@
       </c>
       <c r="N292" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O292" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P292" s="28"/>
-      <c r="Q292" s="44"/>
-      <c r="R292" s="45"/>
-    </row>
-    <row r="293" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q292" s="43"/>
+    </row>
+    <row r="293" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="31">
         <v>45946</v>
       </c>
@@ -19952,17 +19685,16 @@
       </c>
       <c r="N293" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O293" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P293" s="28"/>
-      <c r="Q293" s="44"/>
-      <c r="R293" s="45"/>
-    </row>
-    <row r="294" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q293" s="43"/>
+    </row>
+    <row r="294" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="31">
         <v>45947</v>
       </c>
@@ -19996,17 +19728,16 @@
       </c>
       <c r="N294" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O294" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P294" s="28"/>
-      <c r="Q294" s="44"/>
-      <c r="R294" s="45"/>
-    </row>
-    <row r="295" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q294" s="43"/>
+    </row>
+    <row r="295" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="31">
         <v>45948</v>
       </c>
@@ -20040,17 +19771,16 @@
       </c>
       <c r="N295" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O295" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P295" s="28"/>
-      <c r="Q295" s="44"/>
-      <c r="R295" s="45"/>
-    </row>
-    <row r="296" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q295" s="43"/>
+    </row>
+    <row r="296" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="31">
         <v>45949</v>
       </c>
@@ -20084,17 +19814,16 @@
       </c>
       <c r="N296" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O296" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P296" s="28"/>
-      <c r="Q296" s="44"/>
-      <c r="R296" s="45"/>
-    </row>
-    <row r="297" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q296" s="43"/>
+    </row>
+    <row r="297" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="31">
         <v>45950</v>
       </c>
@@ -20128,17 +19857,16 @@
       </c>
       <c r="N297" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O297" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P297" s="28"/>
-      <c r="Q297" s="44"/>
-      <c r="R297" s="45"/>
-    </row>
-    <row r="298" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q297" s="43"/>
+    </row>
+    <row r="298" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="31">
         <v>45951</v>
       </c>
@@ -20172,17 +19900,16 @@
       </c>
       <c r="N298" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O298" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P298" s="28"/>
-      <c r="Q298" s="44"/>
-      <c r="R298" s="45"/>
-    </row>
-    <row r="299" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q298" s="43"/>
+    </row>
+    <row r="299" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="31">
         <v>45952</v>
       </c>
@@ -20216,17 +19943,16 @@
       </c>
       <c r="N299" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O299" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P299" s="28"/>
-      <c r="Q299" s="44"/>
-      <c r="R299" s="45"/>
-    </row>
-    <row r="300" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q299" s="43"/>
+    </row>
+    <row r="300" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="31">
         <v>45953</v>
       </c>
@@ -20260,17 +19986,16 @@
       </c>
       <c r="N300" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O300" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P300" s="28"/>
-      <c r="Q300" s="44"/>
-      <c r="R300" s="45"/>
-    </row>
-    <row r="301" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q300" s="43"/>
+    </row>
+    <row r="301" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="31">
         <v>45954</v>
       </c>
@@ -20304,17 +20029,16 @@
       </c>
       <c r="N301" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O301" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P301" s="28"/>
-      <c r="Q301" s="44"/>
-      <c r="R301" s="45"/>
-    </row>
-    <row r="302" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q301" s="43"/>
+    </row>
+    <row r="302" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A302" s="31">
         <v>45955</v>
       </c>
@@ -20348,17 +20072,16 @@
       </c>
       <c r="N302" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O302" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P302" s="28"/>
-      <c r="Q302" s="44"/>
-      <c r="R302" s="45"/>
-    </row>
-    <row r="303" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q302" s="43"/>
+    </row>
+    <row r="303" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A303" s="31">
         <v>45956</v>
       </c>
@@ -20392,17 +20115,16 @@
       </c>
       <c r="N303" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O303" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P303" s="28"/>
-      <c r="Q303" s="44"/>
-      <c r="R303" s="45"/>
-    </row>
-    <row r="304" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q303" s="43"/>
+    </row>
+    <row r="304" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="31">
         <v>45957</v>
       </c>
@@ -20436,17 +20158,16 @@
       </c>
       <c r="N304" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O304" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P304" s="28"/>
-      <c r="Q304" s="44"/>
-      <c r="R304" s="45"/>
-    </row>
-    <row r="305" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q304" s="43"/>
+    </row>
+    <row r="305" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A305" s="31">
         <v>45958</v>
       </c>
@@ -20480,17 +20201,16 @@
       </c>
       <c r="N305" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O305" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P305" s="28"/>
-      <c r="Q305" s="44"/>
-      <c r="R305" s="45"/>
-    </row>
-    <row r="306" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q305" s="43"/>
+    </row>
+    <row r="306" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A306" s="31">
         <v>45959</v>
       </c>
@@ -20524,17 +20244,16 @@
       </c>
       <c r="N306" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O306" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P306" s="28"/>
-      <c r="Q306" s="44"/>
-      <c r="R306" s="45"/>
-    </row>
-    <row r="307" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q306" s="43"/>
+    </row>
+    <row r="307" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A307" s="31">
         <v>45960</v>
       </c>
@@ -20568,17 +20287,16 @@
       </c>
       <c r="N307" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O307" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P307" s="28"/>
-      <c r="Q307" s="44"/>
-      <c r="R307" s="45"/>
-    </row>
-    <row r="308" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q307" s="43"/>
+    </row>
+    <row r="308" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="31">
         <v>45961</v>
       </c>
@@ -20612,17 +20330,16 @@
       </c>
       <c r="N308" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O308" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P308" s="28"/>
-      <c r="Q308" s="44"/>
-      <c r="R308" s="45"/>
-    </row>
-    <row r="309" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q308" s="43"/>
+    </row>
+    <row r="309" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A309" s="31">
         <v>45962</v>
       </c>
@@ -20656,17 +20373,16 @@
       </c>
       <c r="N309" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O309" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P309" s="28"/>
-      <c r="Q309" s="44"/>
-      <c r="R309" s="45"/>
-    </row>
-    <row r="310" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q309" s="43"/>
+    </row>
+    <row r="310" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A310" s="31">
         <v>45963</v>
       </c>
@@ -20700,17 +20416,16 @@
       </c>
       <c r="N310" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O310" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P310" s="28"/>
-      <c r="Q310" s="44"/>
-      <c r="R310" s="45"/>
-    </row>
-    <row r="311" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q310" s="43"/>
+    </row>
+    <row r="311" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="31">
         <v>45964</v>
       </c>
@@ -20744,17 +20459,16 @@
       </c>
       <c r="N311" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O311" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P311" s="28"/>
-      <c r="Q311" s="44"/>
-      <c r="R311" s="45"/>
-    </row>
-    <row r="312" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q311" s="43"/>
+    </row>
+    <row r="312" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A312" s="31">
         <v>45965</v>
       </c>
@@ -20788,17 +20502,16 @@
       </c>
       <c r="N312" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O312" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P312" s="28"/>
-      <c r="Q312" s="44"/>
-      <c r="R312" s="45"/>
-    </row>
-    <row r="313" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q312" s="43"/>
+    </row>
+    <row r="313" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A313" s="31">
         <v>45966</v>
       </c>
@@ -20832,17 +20545,16 @@
       </c>
       <c r="N313" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O313" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P313" s="28"/>
-      <c r="Q313" s="44"/>
-      <c r="R313" s="45"/>
-    </row>
-    <row r="314" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q313" s="43"/>
+    </row>
+    <row r="314" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A314" s="31">
         <v>45967</v>
       </c>
@@ -20876,17 +20588,16 @@
       </c>
       <c r="N314" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O314" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P314" s="28"/>
-      <c r="Q314" s="44"/>
-      <c r="R314" s="45"/>
-    </row>
-    <row r="315" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q314" s="43"/>
+    </row>
+    <row r="315" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A315" s="31">
         <v>45968</v>
       </c>
@@ -20920,17 +20631,16 @@
       </c>
       <c r="N315" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O315" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P315" s="28"/>
-      <c r="Q315" s="44"/>
-      <c r="R315" s="45"/>
-    </row>
-    <row r="316" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q315" s="43"/>
+    </row>
+    <row r="316" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A316" s="31">
         <v>45969</v>
       </c>
@@ -20964,17 +20674,16 @@
       </c>
       <c r="N316" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O316" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P316" s="28"/>
-      <c r="Q316" s="44"/>
-      <c r="R316" s="45"/>
-    </row>
-    <row r="317" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q316" s="43"/>
+    </row>
+    <row r="317" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="31">
         <v>45970</v>
       </c>
@@ -21008,17 +20717,16 @@
       </c>
       <c r="N317" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O317" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P317" s="28"/>
-      <c r="Q317" s="44"/>
-      <c r="R317" s="45"/>
-    </row>
-    <row r="318" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q317" s="43"/>
+    </row>
+    <row r="318" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="31">
         <v>45971</v>
       </c>
@@ -21052,17 +20760,16 @@
       </c>
       <c r="N318" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O318" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P318" s="28"/>
-      <c r="Q318" s="44"/>
-      <c r="R318" s="45"/>
-    </row>
-    <row r="319" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q318" s="43"/>
+    </row>
+    <row r="319" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="31">
         <v>45972</v>
       </c>
@@ -21096,17 +20803,16 @@
       </c>
       <c r="N319" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O319" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P319" s="28"/>
-      <c r="Q319" s="44"/>
-      <c r="R319" s="45"/>
-    </row>
-    <row r="320" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q319" s="43"/>
+    </row>
+    <row r="320" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="31">
         <v>45973</v>
       </c>
@@ -21140,17 +20846,16 @@
       </c>
       <c r="N320" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O320" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P320" s="28"/>
-      <c r="Q320" s="44"/>
-      <c r="R320" s="45"/>
-    </row>
-    <row r="321" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q320" s="43"/>
+    </row>
+    <row r="321" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="31">
         <v>45974</v>
       </c>
@@ -21184,17 +20889,16 @@
       </c>
       <c r="N321" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O321" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P321" s="28"/>
-      <c r="Q321" s="44"/>
-      <c r="R321" s="45"/>
-    </row>
-    <row r="322" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q321" s="43"/>
+    </row>
+    <row r="322" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A322" s="31">
         <v>45975</v>
       </c>
@@ -21228,17 +20932,16 @@
       </c>
       <c r="N322" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O322" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P322" s="28"/>
-      <c r="Q322" s="44"/>
-      <c r="R322" s="45"/>
-    </row>
-    <row r="323" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q322" s="43"/>
+    </row>
+    <row r="323" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="31">
         <v>45976</v>
       </c>
@@ -21272,17 +20975,16 @@
       </c>
       <c r="N323" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O323" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P323" s="28"/>
-      <c r="Q323" s="44"/>
-      <c r="R323" s="45"/>
-    </row>
-    <row r="324" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q323" s="43"/>
+    </row>
+    <row r="324" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A324" s="31">
         <v>45977</v>
       </c>
@@ -21316,17 +21018,16 @@
       </c>
       <c r="N324" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O324" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P324" s="28"/>
-      <c r="Q324" s="44"/>
-      <c r="R324" s="45"/>
-    </row>
-    <row r="325" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q324" s="43"/>
+    </row>
+    <row r="325" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A325" s="31">
         <v>45978</v>
       </c>
@@ -21360,17 +21061,16 @@
       </c>
       <c r="N325" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O325" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P325" s="28"/>
-      <c r="Q325" s="44"/>
-      <c r="R325" s="45"/>
-    </row>
-    <row r="326" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q325" s="43"/>
+    </row>
+    <row r="326" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A326" s="31">
         <v>45979</v>
       </c>
@@ -21404,17 +21104,16 @@
       </c>
       <c r="N326" s="41">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O326" s="41">
         <f t="shared" si="29"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P326" s="28"/>
-      <c r="Q326" s="44"/>
-      <c r="R326" s="45"/>
-    </row>
-    <row r="327" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q326" s="43"/>
+    </row>
+    <row r="327" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A327" s="31">
         <v>45980</v>
       </c>
@@ -21448,17 +21147,16 @@
       </c>
       <c r="N327" s="41">
         <f t="shared" ref="N327:N369" si="34">O326</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O327" s="41">
         <f t="shared" ref="O327:O370" si="35">IF(Q327&gt;N327,Q327,N327)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P327" s="28"/>
-      <c r="Q327" s="44"/>
-      <c r="R327" s="45"/>
-    </row>
-    <row r="328" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q327" s="43"/>
+    </row>
+    <row r="328" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A328" s="31">
         <v>45981</v>
       </c>
@@ -21492,17 +21190,16 @@
       </c>
       <c r="N328" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O328" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P328" s="28"/>
-      <c r="Q328" s="44"/>
-      <c r="R328" s="45"/>
-    </row>
-    <row r="329" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q328" s="43"/>
+    </row>
+    <row r="329" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="31">
         <v>45982</v>
       </c>
@@ -21536,17 +21233,16 @@
       </c>
       <c r="N329" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O329" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P329" s="28"/>
-      <c r="Q329" s="44"/>
-      <c r="R329" s="45"/>
-    </row>
-    <row r="330" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q329" s="43"/>
+    </row>
+    <row r="330" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="31">
         <v>45983</v>
       </c>
@@ -21580,17 +21276,16 @@
       </c>
       <c r="N330" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O330" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P330" s="28"/>
-      <c r="Q330" s="44"/>
-      <c r="R330" s="45"/>
-    </row>
-    <row r="331" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q330" s="43"/>
+    </row>
+    <row r="331" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A331" s="31">
         <v>45984</v>
       </c>
@@ -21624,17 +21319,16 @@
       </c>
       <c r="N331" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O331" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P331" s="28"/>
-      <c r="Q331" s="44"/>
-      <c r="R331" s="45"/>
-    </row>
-    <row r="332" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q331" s="43"/>
+    </row>
+    <row r="332" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A332" s="31">
         <v>45985</v>
       </c>
@@ -21668,17 +21362,16 @@
       </c>
       <c r="N332" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O332" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P332" s="28"/>
-      <c r="Q332" s="44"/>
-      <c r="R332" s="45"/>
-    </row>
-    <row r="333" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q332" s="43"/>
+    </row>
+    <row r="333" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A333" s="31">
         <v>45986</v>
       </c>
@@ -21712,17 +21405,16 @@
       </c>
       <c r="N333" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O333" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P333" s="28"/>
-      <c r="Q333" s="44"/>
-      <c r="R333" s="45"/>
-    </row>
-    <row r="334" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q333" s="43"/>
+    </row>
+    <row r="334" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A334" s="31">
         <v>45987</v>
       </c>
@@ -21756,17 +21448,16 @@
       </c>
       <c r="N334" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O334" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P334" s="28"/>
-      <c r="Q334" s="44"/>
-      <c r="R334" s="45"/>
-    </row>
-    <row r="335" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q334" s="43"/>
+    </row>
+    <row r="335" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A335" s="31">
         <v>45988</v>
       </c>
@@ -21800,17 +21491,16 @@
       </c>
       <c r="N335" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O335" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P335" s="28"/>
-      <c r="Q335" s="44"/>
-      <c r="R335" s="45"/>
-    </row>
-    <row r="336" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q335" s="43"/>
+    </row>
+    <row r="336" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="31">
         <v>45989</v>
       </c>
@@ -21844,17 +21534,16 @@
       </c>
       <c r="N336" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O336" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P336" s="28"/>
-      <c r="Q336" s="44"/>
-      <c r="R336" s="45"/>
-    </row>
-    <row r="337" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q336" s="43"/>
+    </row>
+    <row r="337" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="31">
         <v>45990</v>
       </c>
@@ -21888,17 +21577,16 @@
       </c>
       <c r="N337" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O337" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P337" s="28"/>
-      <c r="Q337" s="44"/>
-      <c r="R337" s="45"/>
-    </row>
-    <row r="338" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q337" s="43"/>
+    </row>
+    <row r="338" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="31">
         <v>45991</v>
       </c>
@@ -21932,17 +21620,16 @@
       </c>
       <c r="N338" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O338" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P338" s="28"/>
-      <c r="Q338" s="44"/>
-      <c r="R338" s="45"/>
-    </row>
-    <row r="339" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q338" s="43"/>
+    </row>
+    <row r="339" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="31">
         <v>45992</v>
       </c>
@@ -21976,17 +21663,16 @@
       </c>
       <c r="N339" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O339" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P339" s="28"/>
-      <c r="Q339" s="44"/>
-      <c r="R339" s="45"/>
-    </row>
-    <row r="340" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q339" s="43"/>
+    </row>
+    <row r="340" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A340" s="31">
         <v>45993</v>
       </c>
@@ -22020,17 +21706,16 @@
       </c>
       <c r="N340" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O340" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P340" s="28"/>
-      <c r="Q340" s="44"/>
-      <c r="R340" s="45"/>
-    </row>
-    <row r="341" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q340" s="43"/>
+    </row>
+    <row r="341" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="31">
         <v>45994</v>
       </c>
@@ -22064,17 +21749,16 @@
       </c>
       <c r="N341" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O341" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P341" s="28"/>
-      <c r="Q341" s="44"/>
-      <c r="R341" s="45"/>
-    </row>
-    <row r="342" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q341" s="43"/>
+    </row>
+    <row r="342" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="31">
         <v>45995</v>
       </c>
@@ -22108,17 +21792,16 @@
       </c>
       <c r="N342" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O342" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P342" s="28"/>
-      <c r="Q342" s="44"/>
-      <c r="R342" s="45"/>
-    </row>
-    <row r="343" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q342" s="43"/>
+    </row>
+    <row r="343" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A343" s="31">
         <v>45996</v>
       </c>
@@ -22152,17 +21835,16 @@
       </c>
       <c r="N343" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O343" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P343" s="28"/>
-      <c r="Q343" s="44"/>
-      <c r="R343" s="45"/>
-    </row>
-    <row r="344" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q343" s="43"/>
+    </row>
+    <row r="344" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="31">
         <v>45997</v>
       </c>
@@ -22196,17 +21878,16 @@
       </c>
       <c r="N344" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O344" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P344" s="28"/>
-      <c r="Q344" s="44"/>
-      <c r="R344" s="45"/>
-    </row>
-    <row r="345" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q344" s="43"/>
+    </row>
+    <row r="345" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="31">
         <v>45998</v>
       </c>
@@ -22240,17 +21921,16 @@
       </c>
       <c r="N345" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O345" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P345" s="28"/>
-      <c r="Q345" s="44"/>
-      <c r="R345" s="45"/>
-    </row>
-    <row r="346" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q345" s="43"/>
+    </row>
+    <row r="346" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A346" s="31">
         <v>45999</v>
       </c>
@@ -22284,17 +21964,16 @@
       </c>
       <c r="N346" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O346" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P346" s="28"/>
-      <c r="Q346" s="44"/>
-      <c r="R346" s="45"/>
-    </row>
-    <row r="347" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q346" s="43"/>
+    </row>
+    <row r="347" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A347" s="31">
         <v>46000</v>
       </c>
@@ -22328,17 +22007,16 @@
       </c>
       <c r="N347" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O347" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P347" s="28"/>
-      <c r="Q347" s="44"/>
-      <c r="R347" s="45"/>
-    </row>
-    <row r="348" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q347" s="43"/>
+    </row>
+    <row r="348" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A348" s="31">
         <v>46001</v>
       </c>
@@ -22372,17 +22050,16 @@
       </c>
       <c r="N348" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O348" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P348" s="28"/>
-      <c r="Q348" s="44"/>
-      <c r="R348" s="45"/>
-    </row>
-    <row r="349" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q348" s="43"/>
+    </row>
+    <row r="349" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A349" s="31">
         <v>46002</v>
       </c>
@@ -22416,17 +22093,16 @@
       </c>
       <c r="N349" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O349" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P349" s="28"/>
-      <c r="Q349" s="44"/>
-      <c r="R349" s="45"/>
-    </row>
-    <row r="350" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q349" s="43"/>
+    </row>
+    <row r="350" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A350" s="31">
         <v>46003</v>
       </c>
@@ -22460,17 +22136,16 @@
       </c>
       <c r="N350" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O350" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P350" s="28"/>
-      <c r="Q350" s="44"/>
-      <c r="R350" s="45"/>
-    </row>
-    <row r="351" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q350" s="43"/>
+    </row>
+    <row r="351" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A351" s="31">
         <v>46004</v>
       </c>
@@ -22504,17 +22179,16 @@
       </c>
       <c r="N351" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O351" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P351" s="28"/>
-      <c r="Q351" s="44"/>
-      <c r="R351" s="45"/>
-    </row>
-    <row r="352" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q351" s="43"/>
+    </row>
+    <row r="352" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="31">
         <v>46005</v>
       </c>
@@ -22548,17 +22222,16 @@
       </c>
       <c r="N352" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O352" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P352" s="28"/>
-      <c r="Q352" s="44"/>
-      <c r="R352" s="45"/>
-    </row>
-    <row r="353" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q352" s="43"/>
+    </row>
+    <row r="353" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="31">
         <v>46006</v>
       </c>
@@ -22592,17 +22265,16 @@
       </c>
       <c r="N353" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O353" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P353" s="28"/>
-      <c r="Q353" s="44"/>
-      <c r="R353" s="45"/>
-    </row>
-    <row r="354" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q353" s="43"/>
+    </row>
+    <row r="354" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="31">
         <v>46007</v>
       </c>
@@ -22636,17 +22308,16 @@
       </c>
       <c r="N354" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O354" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P354" s="28"/>
-      <c r="Q354" s="44"/>
-      <c r="R354" s="45"/>
-    </row>
-    <row r="355" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q354" s="43"/>
+    </row>
+    <row r="355" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="31">
         <v>46008</v>
       </c>
@@ -22680,17 +22351,16 @@
       </c>
       <c r="N355" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O355" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P355" s="28"/>
-      <c r="Q355" s="44"/>
-      <c r="R355" s="45"/>
-    </row>
-    <row r="356" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q355" s="43"/>
+    </row>
+    <row r="356" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="31">
         <v>46009</v>
       </c>
@@ -22724,17 +22394,16 @@
       </c>
       <c r="N356" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O356" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P356" s="28"/>
-      <c r="Q356" s="44"/>
-      <c r="R356" s="45"/>
-    </row>
-    <row r="357" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q356" s="43"/>
+    </row>
+    <row r="357" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="31">
         <v>46010</v>
       </c>
@@ -22768,17 +22437,16 @@
       </c>
       <c r="N357" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O357" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P357" s="28"/>
-      <c r="Q357" s="44"/>
-      <c r="R357" s="45"/>
-    </row>
-    <row r="358" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q357" s="43"/>
+    </row>
+    <row r="358" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="31">
         <v>46011</v>
       </c>
@@ -22812,17 +22480,16 @@
       </c>
       <c r="N358" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O358" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P358" s="28"/>
-      <c r="Q358" s="44"/>
-      <c r="R358" s="45"/>
-    </row>
-    <row r="359" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q358" s="43"/>
+    </row>
+    <row r="359" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A359" s="31">
         <v>46012</v>
       </c>
@@ -22856,17 +22523,16 @@
       </c>
       <c r="N359" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O359" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P359" s="28"/>
-      <c r="Q359" s="44"/>
-      <c r="R359" s="45"/>
-    </row>
-    <row r="360" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q359" s="43"/>
+    </row>
+    <row r="360" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A360" s="31">
         <v>46013</v>
       </c>
@@ -22900,17 +22566,16 @@
       </c>
       <c r="N360" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O360" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P360" s="28"/>
-      <c r="Q360" s="44"/>
-      <c r="R360" s="45"/>
-    </row>
-    <row r="361" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q360" s="43"/>
+    </row>
+    <row r="361" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="31">
         <v>46014</v>
       </c>
@@ -22944,17 +22609,16 @@
       </c>
       <c r="N361" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O361" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P361" s="28"/>
-      <c r="Q361" s="44"/>
-      <c r="R361" s="45"/>
-    </row>
-    <row r="362" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q361" s="43"/>
+    </row>
+    <row r="362" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A362" s="31">
         <v>46015</v>
       </c>
@@ -22988,17 +22652,16 @@
       </c>
       <c r="N362" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O362" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P362" s="28"/>
-      <c r="Q362" s="44"/>
-      <c r="R362" s="45"/>
-    </row>
-    <row r="363" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q362" s="43"/>
+    </row>
+    <row r="363" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="31">
         <v>46016</v>
       </c>
@@ -23032,17 +22695,16 @@
       </c>
       <c r="N363" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O363" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P363" s="28"/>
-      <c r="Q363" s="44"/>
-      <c r="R363" s="45"/>
-    </row>
-    <row r="364" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q363" s="43"/>
+    </row>
+    <row r="364" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="31">
         <v>46017</v>
       </c>
@@ -23076,17 +22738,16 @@
       </c>
       <c r="N364" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O364" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P364" s="28"/>
-      <c r="Q364" s="44"/>
-      <c r="R364" s="45"/>
-    </row>
-    <row r="365" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q364" s="43"/>
+    </row>
+    <row r="365" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A365" s="31">
         <v>46018</v>
       </c>
@@ -23120,17 +22781,16 @@
       </c>
       <c r="N365" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O365" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P365" s="28"/>
-      <c r="Q365" s="44"/>
-      <c r="R365" s="45"/>
-    </row>
-    <row r="366" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q365" s="43"/>
+    </row>
+    <row r="366" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="31">
         <v>46019</v>
       </c>
@@ -23164,17 +22824,16 @@
       </c>
       <c r="N366" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O366" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P366" s="28"/>
-      <c r="Q366" s="44"/>
-      <c r="R366" s="45"/>
-    </row>
-    <row r="367" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q366" s="43"/>
+    </row>
+    <row r="367" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" s="31">
         <v>46020</v>
       </c>
@@ -23208,17 +22867,16 @@
       </c>
       <c r="N367" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O367" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P367" s="28"/>
-      <c r="Q367" s="44"/>
-      <c r="R367" s="45"/>
-    </row>
-    <row r="368" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q367" s="43"/>
+    </row>
+    <row r="368" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="31">
         <v>46021</v>
       </c>
@@ -23252,17 +22910,16 @@
       </c>
       <c r="N368" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O368" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P368" s="28"/>
-      <c r="Q368" s="44"/>
-      <c r="R368" s="45"/>
-    </row>
-    <row r="369" spans="1:18" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q368" s="43"/>
+    </row>
+    <row r="369" spans="1:17" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A369" s="31">
         <v>46022</v>
       </c>
@@ -23296,17 +22953,16 @@
       </c>
       <c r="N369" s="41">
         <f t="shared" si="34"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O369" s="41">
         <f t="shared" si="35"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P369" s="28"/>
-      <c r="Q369" s="44"/>
-      <c r="R369" s="45"/>
-    </row>
-    <row r="370" spans="1:18" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q369" s="43"/>
+    </row>
+    <row r="370" spans="1:17" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A370" t="str">
         <f>""</f>
         <v/>
@@ -23375,389 +23031,20 @@
         <f>""</f>
         <v/>
       </c>
-      <c r="R370" s="42" t="str">
-        <f>""</f>
-        <v/>
-      </c>
-    </row>
-    <row r="371" spans="1:18" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="371" spans="1:17" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="373">
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
+  <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:D3"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="G2:J3"/>
-    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M2:P3"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="Q61:R61"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="Q85:R85"/>
-    <mergeCell ref="Q86:R86"/>
-    <mergeCell ref="Q87:R87"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="Q80:R80"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="Q95:R95"/>
-    <mergeCell ref="Q96:R96"/>
-    <mergeCell ref="Q97:R97"/>
-    <mergeCell ref="Q98:R98"/>
-    <mergeCell ref="Q89:R89"/>
-    <mergeCell ref="Q90:R90"/>
-    <mergeCell ref="Q91:R91"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="Q93:R93"/>
-    <mergeCell ref="Q104:R104"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="Q107:R107"/>
-    <mergeCell ref="Q108:R108"/>
-    <mergeCell ref="Q99:R99"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="Q101:R101"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="Q114:R114"/>
-    <mergeCell ref="Q115:R115"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="Q117:R117"/>
-    <mergeCell ref="Q118:R118"/>
-    <mergeCell ref="Q109:R109"/>
-    <mergeCell ref="Q110:R110"/>
-    <mergeCell ref="Q111:R111"/>
-    <mergeCell ref="Q112:R112"/>
-    <mergeCell ref="Q113:R113"/>
-    <mergeCell ref="Q124:R124"/>
-    <mergeCell ref="Q125:R125"/>
-    <mergeCell ref="Q126:R126"/>
-    <mergeCell ref="Q127:R127"/>
-    <mergeCell ref="Q128:R128"/>
-    <mergeCell ref="Q119:R119"/>
-    <mergeCell ref="Q120:R120"/>
-    <mergeCell ref="Q121:R121"/>
-    <mergeCell ref="Q122:R122"/>
-    <mergeCell ref="Q123:R123"/>
-    <mergeCell ref="Q134:R134"/>
-    <mergeCell ref="Q135:R135"/>
-    <mergeCell ref="Q136:R136"/>
-    <mergeCell ref="Q137:R137"/>
-    <mergeCell ref="Q138:R138"/>
-    <mergeCell ref="Q129:R129"/>
-    <mergeCell ref="Q130:R130"/>
-    <mergeCell ref="Q131:R131"/>
-    <mergeCell ref="Q132:R132"/>
-    <mergeCell ref="Q133:R133"/>
-    <mergeCell ref="Q144:R144"/>
-    <mergeCell ref="Q145:R145"/>
-    <mergeCell ref="Q146:R146"/>
-    <mergeCell ref="Q147:R147"/>
-    <mergeCell ref="Q148:R148"/>
-    <mergeCell ref="Q139:R139"/>
-    <mergeCell ref="Q140:R140"/>
-    <mergeCell ref="Q141:R141"/>
-    <mergeCell ref="Q142:R142"/>
-    <mergeCell ref="Q143:R143"/>
-    <mergeCell ref="Q154:R154"/>
-    <mergeCell ref="Q155:R155"/>
-    <mergeCell ref="Q156:R156"/>
-    <mergeCell ref="Q157:R157"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="Q149:R149"/>
-    <mergeCell ref="Q150:R150"/>
-    <mergeCell ref="Q151:R151"/>
-    <mergeCell ref="Q152:R152"/>
-    <mergeCell ref="Q153:R153"/>
-    <mergeCell ref="Q164:R164"/>
-    <mergeCell ref="Q165:R165"/>
-    <mergeCell ref="Q166:R166"/>
-    <mergeCell ref="Q167:R167"/>
-    <mergeCell ref="Q168:R168"/>
-    <mergeCell ref="Q159:R159"/>
-    <mergeCell ref="Q160:R160"/>
-    <mergeCell ref="Q161:R161"/>
-    <mergeCell ref="Q162:R162"/>
-    <mergeCell ref="Q163:R163"/>
-    <mergeCell ref="Q174:R174"/>
-    <mergeCell ref="Q175:R175"/>
-    <mergeCell ref="Q176:R176"/>
-    <mergeCell ref="Q177:R177"/>
-    <mergeCell ref="Q178:R178"/>
-    <mergeCell ref="Q169:R169"/>
-    <mergeCell ref="Q170:R170"/>
-    <mergeCell ref="Q171:R171"/>
-    <mergeCell ref="Q172:R172"/>
-    <mergeCell ref="Q173:R173"/>
-    <mergeCell ref="Q184:R184"/>
-    <mergeCell ref="Q185:R185"/>
-    <mergeCell ref="Q186:R186"/>
-    <mergeCell ref="Q187:R187"/>
-    <mergeCell ref="Q188:R188"/>
-    <mergeCell ref="Q179:R179"/>
-    <mergeCell ref="Q180:R180"/>
-    <mergeCell ref="Q181:R181"/>
-    <mergeCell ref="Q182:R182"/>
-    <mergeCell ref="Q183:R183"/>
-    <mergeCell ref="Q194:R194"/>
-    <mergeCell ref="Q195:R195"/>
-    <mergeCell ref="Q196:R196"/>
-    <mergeCell ref="Q197:R197"/>
-    <mergeCell ref="Q198:R198"/>
-    <mergeCell ref="Q189:R189"/>
-    <mergeCell ref="Q190:R190"/>
-    <mergeCell ref="Q191:R191"/>
-    <mergeCell ref="Q192:R192"/>
-    <mergeCell ref="Q193:R193"/>
-    <mergeCell ref="Q204:R204"/>
-    <mergeCell ref="Q205:R205"/>
-    <mergeCell ref="Q206:R206"/>
-    <mergeCell ref="Q207:R207"/>
-    <mergeCell ref="Q208:R208"/>
-    <mergeCell ref="Q199:R199"/>
-    <mergeCell ref="Q200:R200"/>
-    <mergeCell ref="Q201:R201"/>
-    <mergeCell ref="Q202:R202"/>
-    <mergeCell ref="Q203:R203"/>
-    <mergeCell ref="Q214:R214"/>
-    <mergeCell ref="Q215:R215"/>
-    <mergeCell ref="Q216:R216"/>
-    <mergeCell ref="Q217:R217"/>
-    <mergeCell ref="Q218:R218"/>
-    <mergeCell ref="Q209:R209"/>
-    <mergeCell ref="Q210:R210"/>
-    <mergeCell ref="Q211:R211"/>
-    <mergeCell ref="Q212:R212"/>
-    <mergeCell ref="Q213:R213"/>
-    <mergeCell ref="Q224:R224"/>
-    <mergeCell ref="Q225:R225"/>
-    <mergeCell ref="Q226:R226"/>
-    <mergeCell ref="Q227:R227"/>
-    <mergeCell ref="Q228:R228"/>
-    <mergeCell ref="Q219:R219"/>
-    <mergeCell ref="Q220:R220"/>
-    <mergeCell ref="Q221:R221"/>
-    <mergeCell ref="Q222:R222"/>
-    <mergeCell ref="Q223:R223"/>
-    <mergeCell ref="Q234:R234"/>
-    <mergeCell ref="Q235:R235"/>
-    <mergeCell ref="Q236:R236"/>
-    <mergeCell ref="Q237:R237"/>
-    <mergeCell ref="Q238:R238"/>
-    <mergeCell ref="Q229:R229"/>
-    <mergeCell ref="Q230:R230"/>
-    <mergeCell ref="Q231:R231"/>
-    <mergeCell ref="Q232:R232"/>
-    <mergeCell ref="Q233:R233"/>
-    <mergeCell ref="Q244:R244"/>
-    <mergeCell ref="Q245:R245"/>
-    <mergeCell ref="Q246:R246"/>
-    <mergeCell ref="Q247:R247"/>
-    <mergeCell ref="Q248:R248"/>
-    <mergeCell ref="Q239:R239"/>
-    <mergeCell ref="Q240:R240"/>
-    <mergeCell ref="Q241:R241"/>
-    <mergeCell ref="Q242:R242"/>
-    <mergeCell ref="Q243:R243"/>
-    <mergeCell ref="Q254:R254"/>
-    <mergeCell ref="Q255:R255"/>
-    <mergeCell ref="Q256:R256"/>
-    <mergeCell ref="Q257:R257"/>
-    <mergeCell ref="Q258:R258"/>
-    <mergeCell ref="Q249:R249"/>
-    <mergeCell ref="Q250:R250"/>
-    <mergeCell ref="Q251:R251"/>
-    <mergeCell ref="Q252:R252"/>
-    <mergeCell ref="Q253:R253"/>
-    <mergeCell ref="Q264:R264"/>
-    <mergeCell ref="Q265:R265"/>
-    <mergeCell ref="Q266:R266"/>
-    <mergeCell ref="Q267:R267"/>
-    <mergeCell ref="Q268:R268"/>
-    <mergeCell ref="Q259:R259"/>
-    <mergeCell ref="Q260:R260"/>
-    <mergeCell ref="Q261:R261"/>
-    <mergeCell ref="Q262:R262"/>
-    <mergeCell ref="Q263:R263"/>
-    <mergeCell ref="Q274:R274"/>
-    <mergeCell ref="Q275:R275"/>
-    <mergeCell ref="Q276:R276"/>
-    <mergeCell ref="Q277:R277"/>
-    <mergeCell ref="Q278:R278"/>
-    <mergeCell ref="Q269:R269"/>
-    <mergeCell ref="Q270:R270"/>
-    <mergeCell ref="Q271:R271"/>
-    <mergeCell ref="Q272:R272"/>
-    <mergeCell ref="Q273:R273"/>
-    <mergeCell ref="Q284:R284"/>
-    <mergeCell ref="Q285:R285"/>
-    <mergeCell ref="Q286:R286"/>
-    <mergeCell ref="Q287:R287"/>
-    <mergeCell ref="Q288:R288"/>
-    <mergeCell ref="Q279:R279"/>
-    <mergeCell ref="Q280:R280"/>
-    <mergeCell ref="Q281:R281"/>
-    <mergeCell ref="Q282:R282"/>
-    <mergeCell ref="Q283:R283"/>
-    <mergeCell ref="Q294:R294"/>
-    <mergeCell ref="Q295:R295"/>
-    <mergeCell ref="Q296:R296"/>
-    <mergeCell ref="Q297:R297"/>
-    <mergeCell ref="Q298:R298"/>
-    <mergeCell ref="Q289:R289"/>
-    <mergeCell ref="Q290:R290"/>
-    <mergeCell ref="Q291:R291"/>
-    <mergeCell ref="Q292:R292"/>
-    <mergeCell ref="Q293:R293"/>
-    <mergeCell ref="Q304:R304"/>
-    <mergeCell ref="Q305:R305"/>
-    <mergeCell ref="Q306:R306"/>
-    <mergeCell ref="Q307:R307"/>
-    <mergeCell ref="Q308:R308"/>
-    <mergeCell ref="Q299:R299"/>
-    <mergeCell ref="Q300:R300"/>
-    <mergeCell ref="Q301:R301"/>
-    <mergeCell ref="Q302:R302"/>
-    <mergeCell ref="Q303:R303"/>
-    <mergeCell ref="Q314:R314"/>
-    <mergeCell ref="Q315:R315"/>
-    <mergeCell ref="Q316:R316"/>
-    <mergeCell ref="Q317:R317"/>
-    <mergeCell ref="Q318:R318"/>
-    <mergeCell ref="Q309:R309"/>
-    <mergeCell ref="Q310:R310"/>
-    <mergeCell ref="Q311:R311"/>
-    <mergeCell ref="Q312:R312"/>
-    <mergeCell ref="Q313:R313"/>
-    <mergeCell ref="Q324:R324"/>
-    <mergeCell ref="Q325:R325"/>
-    <mergeCell ref="Q326:R326"/>
-    <mergeCell ref="Q327:R327"/>
-    <mergeCell ref="Q328:R328"/>
-    <mergeCell ref="Q319:R319"/>
-    <mergeCell ref="Q320:R320"/>
-    <mergeCell ref="Q321:R321"/>
-    <mergeCell ref="Q322:R322"/>
-    <mergeCell ref="Q323:R323"/>
-    <mergeCell ref="Q334:R334"/>
-    <mergeCell ref="Q335:R335"/>
-    <mergeCell ref="Q336:R336"/>
-    <mergeCell ref="Q337:R337"/>
-    <mergeCell ref="Q338:R338"/>
-    <mergeCell ref="Q329:R329"/>
-    <mergeCell ref="Q330:R330"/>
-    <mergeCell ref="Q331:R331"/>
-    <mergeCell ref="Q332:R332"/>
-    <mergeCell ref="Q333:R333"/>
-    <mergeCell ref="Q344:R344"/>
-    <mergeCell ref="Q345:R345"/>
-    <mergeCell ref="Q346:R346"/>
-    <mergeCell ref="Q347:R347"/>
-    <mergeCell ref="Q348:R348"/>
-    <mergeCell ref="Q339:R339"/>
-    <mergeCell ref="Q340:R340"/>
-    <mergeCell ref="Q341:R341"/>
-    <mergeCell ref="Q342:R342"/>
-    <mergeCell ref="Q343:R343"/>
-    <mergeCell ref="Q354:R354"/>
-    <mergeCell ref="Q355:R355"/>
-    <mergeCell ref="Q356:R356"/>
-    <mergeCell ref="Q357:R357"/>
-    <mergeCell ref="Q358:R358"/>
-    <mergeCell ref="Q349:R349"/>
-    <mergeCell ref="Q350:R350"/>
-    <mergeCell ref="Q351:R351"/>
-    <mergeCell ref="Q352:R352"/>
-    <mergeCell ref="Q353:R353"/>
-    <mergeCell ref="Q369:R369"/>
-    <mergeCell ref="Q364:R364"/>
-    <mergeCell ref="Q365:R365"/>
-    <mergeCell ref="Q366:R366"/>
-    <mergeCell ref="Q367:R367"/>
-    <mergeCell ref="Q368:R368"/>
-    <mergeCell ref="Q359:R359"/>
-    <mergeCell ref="Q360:R360"/>
-    <mergeCell ref="Q361:R361"/>
-    <mergeCell ref="Q362:R362"/>
-    <mergeCell ref="Q363:R363"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -23781,22 +23068,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
@@ -23805,10 +23092,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
         <v>8.3333333333333332E-3</v>
@@ -29770,22 +29057,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
@@ -29794,10 +29081,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
         <v>0.27500000000000002</v>
@@ -32539,22 +31826,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
@@ -32563,10 +31850,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
         <v>0.13333333333333333</v>
@@ -38033,22 +37320,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
@@ -38057,10 +37344,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
         <v>0.40555555555555561</v>
@@ -43833,22 +43120,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
@@ -43857,10 +43144,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
         <v>0</v>
@@ -49448,22 +48735,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
@@ -49472,10 +48759,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
         <v>0.33583333333333332</v>
@@ -55253,42 +54540,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="48" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:12" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
@@ -55297,10 +54584,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="25.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="5">
         <f ca="1">(E4+(F4/60))/60</f>
         <v>0.17277777777777778</v>
@@ -55309,10 +54596,10 @@
         <f ca="1">(E4+(F4/60))</f>
         <v>10.366666666666667</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
       <c r="K3" s="5">
         <f ca="1">(K4+(L4/60))/60</f>
         <v>1.3444444444444446</v>
